--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,45 +16,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Tomorrow Never Arrives</t>
-  </si>
-  <si>
-    <t>[Pogaria; ed: Pogaria] [Issue Series: MADness]</t>
-  </si>
-  <si>
-    <t>Die Some Other Day</t>
-  </si>
-  <si>
-    <t>Spectrum of Solace</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>New Tricks</t>
-  </si>
-  <si>
-    <t>[The Free Joy State; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>(A Lot Of) Pennies for Your Thoughts</t>
-  </si>
-  <si>
-    <t>[Fauxia; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Happy Pranksgiving!</t>
-  </si>
-  <si>
-    <t>[Verdant Haven; ed: Noahs Second Country]</t>
-  </si>
-  <si>
-    <t>Lives On-Line</t>
-  </si>
-  <si>
-    <t>[Verdant Haven; ed: Pogaria]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>My Milkshake Brings All the @@CURRENCYPLURAL@@ to the Yard</t>
+  </si>
+  <si>
+    <t>[Zwangzug; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>The Melting Point</t>
+  </si>
+  <si>
+    <t>[Westinor; ed: Noahs Second Country]</t>
+  </si>
+  <si>
+    <t>Building on Sand</t>
+  </si>
+  <si>
+    <t>[Fauxia; ed: Zwangzug]</t>
+  </si>
+  <si>
+    <t>Nun on the Run</t>
+  </si>
+  <si>
+    <t>[Sacara; ed: Pogaria]</t>
   </si>
 </sst>
 </file>
@@ -389,7 +374,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D8"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -401,7 +386,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1403</v>
+        <v>1414</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -411,109 +396,76 @@
       </c>
       <c r="D1" t="str">
         <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1403: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1403]Tomorrow Never Arrives[/url] [Pogaria; ed: Pogaria] [Issue Series: MADness]</v>
+        <v>#1414: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1414]My Milkshake Brings All the @@CURRENCYPLURAL@@ to the Yard[/url] [Zwangzug; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1404</v>
+        <v>1415</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" ref="D2:D8" si="0">"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
-        <v>#1404: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1404]Die Some Other Day[/url] [Pogaria; ed: Pogaria] [Issue Series: MADness]</v>
+        <v>#1415: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1415]The Melting Point[/url] [Westinor; ed: Noahs Second Country]</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1405</v>
+        <v>1416</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>#1405: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1405]Spectrum of Solace[/url] [Pogaria; ed: Pogaria] [Issue Series: MADness]</v>
+        <v>#1416: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1416]Building on Sand[/url] [Fauxia; ed: Zwangzug]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1406</v>
+        <v>1417</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1406: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1406]TBD[/url] </v>
+        <v>#1417: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1417]Nun on the Run[/url] [Sacara; ed: Pogaria]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5">
-        <v>1407</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>#1407: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1407]New Tricks[/url] [The Free Joy State; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6">
-        <v>1408</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>#1408: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1408](A Lot Of) Pennies for Your Thoughts[/url] [Fauxia; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7">
-        <v>1409</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>#1409: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1409]Happy Pranksgiving![/url] [Verdant Haven; ed: Noahs Second Country]</v>
+        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8">
-        <v>1410</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>#1410: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1410]Lives On-Line[/url] [Verdant Haven; ed: Pogaria]</v>
+        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,30 +16,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>My Milkshake Brings All the @@CURRENCYPLURAL@@ to the Yard</t>
-  </si>
-  <si>
-    <t>[Zwangzug; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>The Melting Point</t>
-  </si>
-  <si>
-    <t>[Westinor; ed: Noahs Second Country]</t>
-  </si>
-  <si>
-    <t>Building on Sand</t>
-  </si>
-  <si>
-    <t>[Fauxia; ed: Zwangzug]</t>
-  </si>
-  <si>
-    <t>Nun on the Run</t>
-  </si>
-  <si>
-    <t>[Sacara; ed: Pogaria]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Parks and Aggravation</t>
+  </si>
+  <si>
+    <t>[Pogaria; ed: Gnejs]</t>
+  </si>
+  <si>
+    <t>Devolution Devolves Into Disaster?</t>
+  </si>
+  <si>
+    <t>Three Little Words</t>
+  </si>
+  <si>
+    <t>The Door's Unlocked, Let Yourself In...</t>
+  </si>
+  <si>
+    <t>Bunged Up</t>
+  </si>
+  <si>
+    <t>Flushing for Freedom</t>
+  </si>
+  <si>
+    <t>Uncharitable Donations</t>
+  </si>
+  <si>
+    <t>Content Discontent</t>
+  </si>
+  <si>
+    <t>I Guess You Can Tell Me the Odds</t>
+  </si>
+  <si>
+    <t>Test Environment</t>
+  </si>
+  <si>
+    <t>Erynia and Draconia; ed: Pogaria</t>
+  </si>
+  <si>
+    <t>The Free Joy State; ed: Electrum</t>
+  </si>
+  <si>
+    <t>Candlewhisper Archive; ed: Verdant Haven</t>
+  </si>
+  <si>
+    <t>Daarwyrth; ed: Candlewhisper Archive</t>
+  </si>
+  <si>
+    <t>Sylestone; ed: Candlewhisper Archive</t>
+  </si>
+  <si>
+    <t>United Denstovia, ed: Candlewhisper Archive</t>
+  </si>
+  <si>
+    <t>Verdant Haven, Terrabod; ed: Pogaria</t>
+  </si>
+  <si>
+    <t>Great Robertia; ed: Verdant Haven</t>
+  </si>
+  <si>
+    <t>Ko-oren; ed: Gnejs</t>
   </si>
 </sst>
 </file>
@@ -79,7 +115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -87,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -127,7 +163,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,7 +233,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -371,22 +407,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="38.76171875" customWidth="1"/>
+    <col min="4" max="4" width="137.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1414</v>
+        <v>1509</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -396,76 +433,142 @@
       </c>
       <c r="D1" t="str">
         <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1414: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1414]My Milkshake Brings All the @@CURRENCYPLURAL@@ to the Yard[/url] [Zwangzug; ed: Candlewhisper Archive]</v>
+        <v>#1509: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1509]Parks and Aggravation[/url] [Pogaria; ed: Gnejs]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1415</v>
+        <v>1510</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D8" si="0">"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
-        <v>#1415: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1415]The Melting Point[/url] [Westinor; ed: Noahs Second Country]</v>
+        <f>"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
+        <v>#1510: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1510]Devolution Devolves Into Disaster?[/url] Erynia and Draconia; ed: Pogaria</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1416</v>
+        <v>1511</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>#1416: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1416]Building on Sand[/url] [Fauxia; ed: Zwangzug]</v>
+        <f>"#"&amp;A3&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A3&amp;"]"&amp;B3&amp;"[/url] "&amp;C3</f>
+        <v>#1511: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1511]Three Little Words[/url] The Free Joy State; ed: Electrum</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1417</v>
+        <v>1512</v>
       </c>
       <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="str">
+        <f>"#"&amp;A4&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A4&amp;"]"&amp;B4&amp;"[/url] "&amp;C4</f>
+        <v>#1512: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1512]The Door's Unlocked, Let Yourself In...[/url] Candlewhisper Archive; ed: Verdant Haven</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>1513</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="str">
+        <f>"#"&amp;A5&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A5&amp;"]"&amp;B5&amp;"[/url] "&amp;C5</f>
+        <v>#1513: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1513]Bunged Up[/url] Daarwyrth; ed: Candlewhisper Archive</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>1514</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="str">
+        <f>"#"&amp;A6&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A6&amp;"]"&amp;B6&amp;"[/url] "&amp;C6</f>
+        <v>#1514: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1514]Flushing for Freedom[/url] Sylestone; ed: Candlewhisper Archive</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>1515</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="str">
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="str">
+        <f>"#"&amp;A7&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A7&amp;"]"&amp;B7&amp;"[/url] "&amp;C7</f>
+        <v>#1515: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1515]Uncharitable Donations[/url] United Denstovia, ed: Candlewhisper Archive</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1516</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="str">
+        <f>"#"&amp;A8&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A8&amp;"]"&amp;B8&amp;"[/url] "&amp;C8</f>
+        <v>#1516: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1516]Content Discontent[/url] Verdant Haven, Terrabod; ed: Pogaria</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1517</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" ref="D9:D10" si="0">"#"&amp;A9&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A9&amp;"]"&amp;B9&amp;"[/url] "&amp;C9</f>
+        <v>#1517: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1517]I Guess You Can Tell Me the Odds[/url] Great Robertia; ed: Verdant Haven</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>1518</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>#1417: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1417]Nun on the Run[/url] [Sacara; ed: Pogaria]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#][/url] </v>
+        <v>#1518: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1518]Test Environment[/url] Ko-oren; ed: Gnejs</v>
       </c>
     </row>
   </sheetData>
@@ -479,7 +582,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -491,7 +594,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="267" yWindow="93" windowWidth="24173" windowHeight="5233"/>
+    <workbookView xWindow="267" yWindow="93" windowWidth="13720" windowHeight="5233"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -16,66 +16,105 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Parks and Aggravation</t>
-  </si>
-  <si>
-    <t>[Pogaria; ed: Gnejs]</t>
-  </si>
-  <si>
-    <t>Devolution Devolves Into Disaster?</t>
-  </si>
-  <si>
-    <t>Three Little Words</t>
-  </si>
-  <si>
-    <t>The Door's Unlocked, Let Yourself In...</t>
-  </si>
-  <si>
-    <t>Bunged Up</t>
-  </si>
-  <si>
-    <t>Flushing for Freedom</t>
-  </si>
-  <si>
-    <t>Uncharitable Donations</t>
-  </si>
-  <si>
-    <t>Content Discontent</t>
-  </si>
-  <si>
-    <t>I Guess You Can Tell Me the Odds</t>
-  </si>
-  <si>
-    <t>Test Environment</t>
-  </si>
-  <si>
-    <t>Erynia and Draconia; ed: Pogaria</t>
-  </si>
-  <si>
-    <t>The Free Joy State; ed: Electrum</t>
-  </si>
-  <si>
-    <t>Candlewhisper Archive; ed: Verdant Haven</t>
-  </si>
-  <si>
-    <t>Daarwyrth; ed: Candlewhisper Archive</t>
-  </si>
-  <si>
-    <t>Sylestone; ed: Candlewhisper Archive</t>
-  </si>
-  <si>
-    <t>United Denstovia, ed: Candlewhisper Archive</t>
-  </si>
-  <si>
-    <t>Verdant Haven, Terrabod; ed: Pogaria</t>
-  </si>
-  <si>
-    <t>Great Robertia; ed: Verdant Haven</t>
-  </si>
-  <si>
-    <t>Ko-oren; ed: Gnejs</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+  <si>
+    <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
+  </si>
+  <si>
+    <t>Remittances Running Rampant</t>
+  </si>
+  <si>
+    <t>[Jim the Baptist; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>[Untecna; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>The Bells! The Bells!</t>
+  </si>
+  <si>
+    <t>[Bears Armed; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Scry Babies</t>
+  </si>
+  <si>
+    <t>[Sammuramat; ed: The Marsupial Illuminati]</t>
+  </si>
+  <si>
+    <t>Don't Tread on My Money</t>
+  </si>
+  <si>
+    <t>[Merni; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Built to Rule</t>
+  </si>
+  <si>
+    <t>[Daarwyrth; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>@@LEADER@@: The Musical!</t>
+  </si>
+  <si>
+    <t>[Pogaria; ed: The Free Joy State]</t>
+  </si>
+  <si>
+    <t>Corporate Pride</t>
+  </si>
+  <si>
+    <t>[Cretox State; ed: Gnejs]</t>
+  </si>
+  <si>
+    <t>God Save The Queens</t>
+  </si>
+  <si>
+    <t>[Daarwyrth; ed: The Marsupial Illuminati]</t>
+  </si>
+  <si>
+    <t>Our Feta Which Art in Havarti...</t>
+  </si>
+  <si>
+    <t>[The Daystar Isles; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>Duel of the Fates</t>
+  </si>
+  <si>
+    <t>[TBD]</t>
+  </si>
+  <si>
+    <t>Absolutely Speechless</t>
+  </si>
+  <si>
+    <t>[Baloo Kingdom; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Fine Time</t>
+  </si>
+  <si>
+    <t>When Life Doesn't Give You Lemons</t>
+  </si>
+  <si>
+    <t>[West Barack and East Obama; ed: The Marsupial Illuminati]</t>
+  </si>
+  <si>
+    <t>Give a Girl Some Credit</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>Mr. Tingle Goes to Cyberspace</t>
+  </si>
+  <si>
+    <t>[Luna Amore; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>The Birdman of Pelicanz</t>
   </si>
 </sst>
 </file>
@@ -407,168 +446,289 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="32.76171875" customWidth="1"/>
     <col min="3" max="3" width="38.76171875" customWidth="1"/>
     <col min="4" max="4" width="137.76171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1509</v>
+        <v>1519</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="str">
-        <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1509: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1509]Parks and Aggravation[/url] [Pogaria; ed: Gnejs]</v>
+        <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <v>#1519: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1519]Remittances Running Rampant[/url] [Jim the Baptist; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1510</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>1520</v>
+      </c>
+      <c r="B2" t="str">
+        <f>"@@LEADER@@'s Big Unicameral Bash"</f>
+        <v>@@LEADER@@'s Big Unicameral Bash</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D2" t="str">
-        <f>"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
-        <v>#1510: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1510]Devolution Devolves Into Disaster?[/url] Erynia and Draconia; ed: Pogaria</v>
+        <f t="shared" ref="D2:D18" si="0">"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
+        <v>#1520: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1520]@@LEADER@@'s Big Unicameral Bash[/url] [Untecna; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1511</v>
+        <v>1521</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D3" t="str">
-        <f>"#"&amp;A3&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A3&amp;"]"&amp;B3&amp;"[/url] "&amp;C3</f>
-        <v>#1511: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1511]Three Little Words[/url] The Free Joy State; ed: Electrum</v>
+        <f t="shared" si="0"/>
+        <v>#1521: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1521]The Bells! The Bells![/url] [Bears Armed; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1512</v>
+        <v>1522</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D4" t="str">
-        <f>"#"&amp;A4&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A4&amp;"]"&amp;B4&amp;"[/url] "&amp;C4</f>
-        <v>#1512: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1512]The Door's Unlocked, Let Yourself In...[/url] Candlewhisper Archive; ed: Verdant Haven</v>
+        <f t="shared" si="0"/>
+        <v>#1522: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1522]Scry Babies[/url] [Sammuramat; ed: The Marsupial Illuminati]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1513</v>
+        <v>1523</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D5" t="str">
-        <f>"#"&amp;A5&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A5&amp;"]"&amp;B5&amp;"[/url] "&amp;C5</f>
-        <v>#1513: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1513]Bunged Up[/url] Daarwyrth; ed: Candlewhisper Archive</v>
+        <f t="shared" si="0"/>
+        <v>#1523: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1523]Don't Tread on My Money[/url] [Merni; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1514</v>
+        <v>1524</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="str">
-        <f>"#"&amp;A6&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A6&amp;"]"&amp;B6&amp;"[/url] "&amp;C6</f>
-        <v>#1514: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1514]Flushing for Freedom[/url] Sylestone; ed: Candlewhisper Archive</v>
+        <f t="shared" si="0"/>
+        <v>#1524: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1524]Built to Rule[/url] [Daarwyrth; ed: Pogaria]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1515</v>
+        <v>1525</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7" t="str">
-        <f>"#"&amp;A7&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A7&amp;"]"&amp;B7&amp;"[/url] "&amp;C7</f>
-        <v>#1515: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1515]Uncharitable Donations[/url] United Denstovia, ed: Candlewhisper Archive</v>
+        <f t="shared" si="0"/>
+        <v>#1525: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1525]@@LEADER@@: The Musical![/url] [Pogaria; ed: The Free Joy State]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1516</v>
+        <v>1526</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="str">
-        <f>"#"&amp;A8&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A8&amp;"]"&amp;B8&amp;"[/url] "&amp;C8</f>
-        <v>#1516: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1516]Content Discontent[/url] Verdant Haven, Terrabod; ed: Pogaria</v>
+        <f t="shared" si="0"/>
+        <v>#1526: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1526]Corporate Pride[/url] [Cretox State; ed: Gnejs]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1517</v>
+        <v>1527</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" ref="D9:D10" si="0">"#"&amp;A9&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#"&amp;A9&amp;"]"&amp;B9&amp;"[/url] "&amp;C9</f>
-        <v>#1517: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1517]I Guess You Can Tell Me the Odds[/url] Great Robertia; ed: Verdant Haven</v>
+        <f t="shared" si="0"/>
+        <v>#1527: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1527]God Save The Queens[/url] [Daarwyrth; ed: The Marsupial Illuminati]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1518</v>
+        <v>1528</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>#1518: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=50#1518]Test Environment[/url] Ko-oren; ed: Gnejs</v>
+        <v>#1528: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1528]Our Feta Which Art in Havarti...[/url] [The Daystar Isles; ed: Pogaria]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>1529</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>#1529: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1529]Duel of the Fates[/url] [TBD]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>1530</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>#1530: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1530]Absolutely Speechless[/url] [Baloo Kingdom; ed: Verdant Haven]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1531</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>#1531: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1531]Fine Time[/url] [TBD]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>1532</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="0"/>
+        <v>#1532: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1532]When Life Doesn't Give You Lemons[/url] [West Barack and East Obama; ed: The Marsupial Illuminati]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>1533</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" t="str">
+        <f t="shared" si="0"/>
+        <v>#1533: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1533]Give a Girl Some Credit[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1534</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="str">
+        <f t="shared" si="0"/>
+        <v>#1534: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1534]TBD[/url] [TBD]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1535</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="str">
+        <f t="shared" si="0"/>
+        <v>#1535: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1535]Mr. Tingle Goes to Cyberspace[/url] [Luna Amore; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1536</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="str">
+        <f t="shared" si="0"/>
+        <v>#1536: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1536]The Birdman of Pelicanz[/url] [Bears Armed; ed: Verdant Haven]</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +743,16 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="36.3515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,105 +16,75 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
   </si>
   <si>
-    <t>Remittances Running Rampant</t>
-  </si>
-  <si>
-    <t>[Jim the Baptist; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>[Untecna; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>The Bells! The Bells!</t>
-  </si>
-  <si>
-    <t>[Bears Armed; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Scry Babies</t>
-  </si>
-  <si>
-    <t>[Sammuramat; ed: The Marsupial Illuminati]</t>
-  </si>
-  <si>
-    <t>Don't Tread on My Money</t>
-  </si>
-  <si>
-    <t>[Merni; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Built to Rule</t>
-  </si>
-  <si>
-    <t>[Daarwyrth; ed: Pogaria]</t>
-  </si>
-  <si>
-    <t>@@LEADER@@: The Musical!</t>
-  </si>
-  <si>
-    <t>[Pogaria; ed: The Free Joy State]</t>
-  </si>
-  <si>
-    <t>Corporate Pride</t>
-  </si>
-  <si>
-    <t>[Cretox State; ed: Gnejs]</t>
-  </si>
-  <si>
-    <t>God Save The Queens</t>
-  </si>
-  <si>
-    <t>[Daarwyrth; ed: The Marsupial Illuminati]</t>
-  </si>
-  <si>
-    <t>Our Feta Which Art in Havarti...</t>
-  </si>
-  <si>
-    <t>[The Daystar Isles; ed: Pogaria]</t>
-  </si>
-  <si>
-    <t>Duel of the Fates</t>
-  </si>
-  <si>
     <t>[TBD]</t>
   </si>
   <si>
-    <t>Absolutely Speechless</t>
-  </si>
-  <si>
-    <t>[Baloo Kingdom; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Fine Time</t>
-  </si>
-  <si>
-    <t>When Life Doesn't Give You Lemons</t>
-  </si>
-  <si>
-    <t>[West Barack and East Obama; ed: The Marsupial Illuminati]</t>
-  </si>
-  <si>
-    <t>Give a Girl Some Credit</t>
-  </si>
-  <si>
-    <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
     <t>TBD</t>
   </si>
   <si>
-    <t>Mr. Tingle Goes to Cyberspace</t>
-  </si>
-  <si>
-    <t>[Luna Amore; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>The Birdman of Pelicanz</t>
+    <t>Bench Wars</t>
+  </si>
+  <si>
+    <t>[Roulantinia; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>The Passion of Chris</t>
+  </si>
+  <si>
+    <t>[Siornor; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Save the Last Dance</t>
+  </si>
+  <si>
+    <t>[Sedgistan; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Clean Flavours</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Frieden-und Freudenland and Candensia]</t>
+  </si>
+  <si>
+    <t>Confusion of the Highest Order</t>
+  </si>
+  <si>
+    <t>[The Dark Crusaders; ed: Sedgistan]</t>
+  </si>
+  <si>
+    <t>Dangerous Liaisons</t>
+  </si>
+  <si>
+    <t>[Baggieland; ed: Frieden-und Freudenland]</t>
+  </si>
+  <si>
+    <t>Happy Juice</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Deep Down Up to No Good</t>
+  </si>
+  <si>
+    <t>[Baggieland; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Fool's Gold</t>
+  </si>
+  <si>
+    <t>[Electrum; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>The Return of the Prodigal Son</t>
+  </si>
+  <si>
+    <t>[Baggieland; ed: Zwangzug]</t>
   </si>
 </sst>
 </file>
@@ -154,7 +124,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,9 +132,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Thema">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +172,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -272,7 +242,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="32.76171875" customWidth="1"/>
@@ -462,273 +432,248 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1519</v>
+        <v>1537</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" t="str">
-        <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1519: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1519]Remittances Running Rampant[/url] [Jim the Baptist; ed: Verdant Haven]</v>
+        <f t="shared" ref="D1:D20" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <v>#1537: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1537]Bench Wars[/url] [Roulantinia; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1520</v>
-      </c>
-      <c r="B2" t="str">
-        <f>"@@LEADER@@'s Big Unicameral Bash"</f>
-        <v>@@LEADER@@'s Big Unicameral Bash</v>
+        <v>1538</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" ref="D2:D18" si="0">"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
-        <v>#1520: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1520]@@LEADER@@'s Big Unicameral Bash[/url] [Untecna; ed: Candlewhisper Archive]</v>
+        <f t="shared" si="0"/>
+        <v>#1538: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1538]The Passion of Chris[/url] [Siornor; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1521</v>
+        <v>1539</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>#1521: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1521]The Bells! The Bells![/url] [Bears Armed; ed: Verdant Haven]</v>
+        <v>#1539: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1539]Save the Last Dance[/url] [Sedgistan; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1522</v>
+        <v>1540</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>#1522: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1522]Scry Babies[/url] [Sammuramat; ed: The Marsupial Illuminati]</v>
+        <v>#1540: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1540]Clean Flavours[/url] [Candlewhisper Archive; ed: Frieden-und Freudenland and Candensia]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1523</v>
+        <v>1541</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>#1523: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1523]Don't Tread on My Money[/url] [Merni; ed: Verdant Haven]</v>
+        <v>#1541: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1541]Confusion of the Highest Order[/url] [The Dark Crusaders; ed: Sedgistan]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1524</v>
+        <v>1542</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>#1524: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1524]Built to Rule[/url] [Daarwyrth; ed: Pogaria]</v>
+        <v>#1542: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1542]Dangerous Liaisons[/url] [Baggieland; ed: Frieden-und Freudenland]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1525</v>
+        <v>1543</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>#1525: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1525]@@LEADER@@: The Musical![/url] [Pogaria; ed: The Free Joy State]</v>
+        <v>#1543: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1543]TBD[/url] [TBD]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1526</v>
+        <v>1544</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>#1526: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1526]Corporate Pride[/url] [Cretox State; ed: Gnejs]</v>
+        <v>#1544: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1544]Happy Juice[/url] [Candlewhisper Archive; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1527</v>
+        <v>1545</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>#1527: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1527]God Save The Queens[/url] [Daarwyrth; ed: The Marsupial Illuminati]</v>
+        <v>#1545: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1545]Deep Down Up to No Good[/url] [Baggieland; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1528</v>
+        <v>1546</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>#1528: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1528]Our Feta Which Art in Havarti...[/url] [The Daystar Isles; ed: Pogaria]</v>
+        <v>#1546: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1546]Fool's Gold[/url] [Electrum; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1529</v>
+        <v>1547</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>#1529: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1529]Duel of the Fates[/url] [TBD]</v>
+        <v>#1547: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1547]The Return of the Prodigal Son[/url] [Baggieland; ed: Zwangzug]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1530</v>
-      </c>
-      <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+        <v>1548</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>#1530: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1530]Absolutely Speechless[/url] [Baloo Kingdom; ed: Verdant Haven]</v>
+        <v xml:space="preserve">#1548: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1548][/url] </v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1531</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>21</v>
+        <v>1549</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>#1531: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1531]Fine Time[/url] [TBD]</v>
+        <v xml:space="preserve">#1549: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1549][/url] </v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1532</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
+        <v>1550</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>#1532: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1532]When Life Doesn't Give You Lemons[/url] [West Barack and East Obama; ed: The Marsupial Illuminati]</v>
+        <v xml:space="preserve">#1550: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1550][/url] </v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1533</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
+        <v>1551</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>#1533: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1533]Give a Girl Some Credit[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#1551: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1551][/url] </v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1534</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
+        <v>1552</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v>#1534: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1534]TBD[/url] [TBD]</v>
+        <v xml:space="preserve">#1552: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1552][/url] </v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1535</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
+        <v>1553</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v>#1535: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1535]Mr. Tingle Goes to Cyberspace[/url] [Luna Amore; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#1553: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1553][/url] </v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1536</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
+        <v>1554</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v>#1536: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1536]The Birdman of Pelicanz[/url] [Bears Armed; ed: Verdant Haven]</v>
+        <v xml:space="preserve">#1554: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1554][/url] </v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1555</v>
+      </c>
+      <c r="D19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">#1555: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1555][/url] </v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1556</v>
+      </c>
+      <c r="D20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">#1556: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1556][/url] </v>
       </c>
     </row>
   </sheetData>
@@ -742,7 +687,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="36.3515625" customWidth="1"/>
   </cols>
@@ -763,7 +708,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
   </si>
@@ -85,6 +85,36 @@
   </si>
   <si>
     <t>[Baggieland; ed: Zwangzug]</t>
+  </si>
+  <si>
+    <t>Killing in the Name of Beer</t>
+  </si>
+  <si>
+    <t>[RedBrickLand; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Easter Egg: 20 Years A-Workin'</t>
+  </si>
+  <si>
+    <t>[Sanctaria, Pogaria, Verdant Haven, Zwangzug, Electrum, Gnejs, Candlewhisper Archive, Sedgistan, &amp; Noahs Second Country; ed: Sanctaria]</t>
+  </si>
+  <si>
+    <t>A Friend With Weed Is a Friend Indeed?</t>
+  </si>
+  <si>
+    <t>[Westinor; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>Gimme! Gimme! Gimme!</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>What Are We Paying For?</t>
+  </si>
+  <si>
+    <t>[Verdant Haven; ed: Verdant Haven]</t>
   </si>
 </sst>
 </file>
@@ -418,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -599,45 +629,75 @@
       <c r="A12">
         <v>1548</v>
       </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1548: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1548][/url] </v>
+        <v>#1548: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1548]Killing in the Name of Beer[/url] [RedBrickLand; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>1549</v>
       </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1549: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1549][/url] </v>
+        <v>#1549: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1549]Easter Egg: 20 Years A-Workin'[/url] [Sanctaria, Pogaria, Verdant Haven, Zwangzug, Electrum, Gnejs, Candlewhisper Archive, Sedgistan, &amp; Noahs Second Country; ed: Sanctaria]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>1550</v>
       </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1550: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1550][/url] </v>
+        <v>#1550: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1550]A Friend With Weed Is a Friend Indeed?[/url] [Westinor; ed: Pogaria]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
         <v>1551</v>
       </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1551: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1551][/url] </v>
+        <v>#1551: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1551]Gimme! Gimme! Gimme![/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
         <v>1552</v>
       </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1552: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1552][/url] </v>
+        <f>"#"&amp;A16&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A16&amp;"]"&amp;B16&amp;"[/url] "&amp;C16</f>
+        <v>#1552: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1552]What Are We Paying For?[/url] [Verdant Haven; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -645,7 +705,7 @@
         <v>1553</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
+        <f>"#"&amp;A17&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A17&amp;"]"&amp;B17&amp;"[/url] "&amp;C17</f>
         <v xml:space="preserve">#1553: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1553][/url] </v>
       </c>
     </row>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -21,12 +21,6 @@
     <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
   </si>
   <si>
-    <t>[TBD]</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
     <t>Bench Wars</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>[Verdant Haven; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>An Issue About Nothing</t>
+  </si>
+  <si>
+    <t>[Nardin; ed: Electrum]</t>
   </si>
 </sst>
 </file>
@@ -154,7 +154,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,9 +162,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoor-tema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +202,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -272,7 +272,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -448,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -465,10 +465,10 @@
         <v>1537</v>
       </c>
       <c r="B1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" ref="D1:D20" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
@@ -480,10 +480,10 @@
         <v>1538</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" si="0"/>
@@ -495,10 +495,10 @@
         <v>1539</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
@@ -510,10 +510,10 @@
         <v>1540</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
@@ -525,10 +525,10 @@
         <v>1541</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
@@ -540,10 +540,10 @@
         <v>1542</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -555,14 +555,14 @@
         <v>1543</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>#1543: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1543]TBD[/url] [TBD]</v>
+        <v>#1543: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1543]What Are We Paying For?[/url] [Verdant Haven; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -570,10 +570,10 @@
         <v>1544</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
@@ -585,10 +585,10 @@
         <v>1545</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
@@ -600,10 +600,10 @@
         <v>1546</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
@@ -615,10 +615,10 @@
         <v>1547</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
@@ -630,10 +630,10 @@
         <v>1548</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
@@ -645,10 +645,10 @@
         <v>1549</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
@@ -660,10 +660,10 @@
         <v>1550</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
@@ -675,10 +675,10 @@
         <v>1551</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
@@ -697,7 +697,7 @@
       </c>
       <c r="D16" t="str">
         <f>"#"&amp;A16&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A16&amp;"]"&amp;B16&amp;"[/url] "&amp;C16</f>
-        <v>#1552: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1552]What Are We Paying For?[/url] [Verdant Haven; ed: Verdant Haven]</v>
+        <v>#1552: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1552]An Issue About Nothing[/url] [Nardin; ed: Electrum]</v>
       </c>
     </row>
     <row r="17" spans="1:4">

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,105 +16,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
   </si>
   <si>
-    <t>Bench Wars</t>
-  </si>
-  <si>
-    <t>[Roulantinia; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>The Passion of Chris</t>
-  </si>
-  <si>
-    <t>[Siornor; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Save the Last Dance</t>
-  </si>
-  <si>
-    <t>[Sedgistan; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Clean Flavours</t>
-  </si>
-  <si>
-    <t>[Candlewhisper Archive; ed: Frieden-und Freudenland and Candensia]</t>
-  </si>
-  <si>
-    <t>Confusion of the Highest Order</t>
-  </si>
-  <si>
-    <t>[The Dark Crusaders; ed: Sedgistan]</t>
-  </si>
-  <si>
-    <t>Dangerous Liaisons</t>
-  </si>
-  <si>
-    <t>[Baggieland; ed: Frieden-und Freudenland]</t>
-  </si>
-  <si>
-    <t>Happy Juice</t>
-  </si>
-  <si>
-    <t>[Candlewhisper Archive; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Deep Down Up to No Good</t>
-  </si>
-  <si>
-    <t>[Baggieland; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Fool's Gold</t>
-  </si>
-  <si>
-    <t>[Electrum; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>The Return of the Prodigal Son</t>
-  </si>
-  <si>
-    <t>[Baggieland; ed: Zwangzug]</t>
-  </si>
-  <si>
-    <t>Killing in the Name of Beer</t>
-  </si>
-  <si>
-    <t>[RedBrickLand; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Easter Egg: 20 Years A-Workin'</t>
-  </si>
-  <si>
-    <t>[Sanctaria, Pogaria, Verdant Haven, Zwangzug, Electrum, Gnejs, Candlewhisper Archive, Sedgistan, &amp; Noahs Second Country; ed: Sanctaria]</t>
-  </si>
-  <si>
-    <t>A Friend With Weed Is a Friend Indeed?</t>
-  </si>
-  <si>
-    <t>[Westinor; ed: Pogaria]</t>
-  </si>
-  <si>
-    <t>Gimme! Gimme! Gimme!</t>
-  </si>
-  <si>
     <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
   </si>
   <si>
-    <t>What Are We Paying For?</t>
-  </si>
-  <si>
-    <t>[Verdant Haven; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>An Issue About Nothing</t>
-  </si>
-  <si>
-    <t>[Nardin; ed: Electrum]</t>
+    <t>Give a Boy Some Credit</t>
+  </si>
+  <si>
+    <t>Fifteen Minutes of Flame</t>
+  </si>
+  <si>
+    <t>[Savantoj; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Trajectory x Velocity = [i]GOAALL![/i]</t>
+  </si>
+  <si>
+    <t>[Baggieland; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Deaf Trap</t>
+  </si>
+  <si>
+    <t>[Cassinia; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Gimme Shelter</t>
+  </si>
+  <si>
+    <t>[Nuremgard; ed: Candlewhisper Archive]</t>
   </si>
 </sst>
 </file>
@@ -154,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normaal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -162,9 +96,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoor-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -202,7 +136,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -272,7 +206,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -462,22 +396,22 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1537</v>
+        <v>1534</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D20" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1537: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1537]Bench Wars[/url] [Roulantinia; ed: Candlewhisper Archive]</v>
+        <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <v>#1534: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1534]Give a Boy Some Credit[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1538</v>
+        <v>1553</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -486,13 +420,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v>#1538: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1538]The Passion of Chris[/url] [Siornor; ed: Verdant Haven]</v>
+        <f>"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
+        <v>#1553: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1553]Fifteen Minutes of Flame[/url] [Savantoj; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1539</v>
+        <v>1554</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -501,13 +435,13 @@
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>#1539: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1539]Save the Last Dance[/url] [Sedgistan; ed: Candlewhisper Archive]</v>
+        <f t="shared" ref="D3:D23" si="0">"#"&amp;A3&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A3&amp;"]"&amp;B3&amp;"[/url] "&amp;C3</f>
+        <v>#1554: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1554]Trajectory x Velocity = [i]GOAALL![/i][/url] [Baggieland; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1540</v>
+        <v>1555</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -517,12 +451,12 @@
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>#1540: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1540]Clean Flavours[/url] [Candlewhisper Archive; ed: Frieden-und Freudenland and Candensia]</v>
+        <v>#1555: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1555]Deaf Trap[/url] [Cassinia; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1541</v>
+        <v>1556</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -532,208 +466,169 @@
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>#1541: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1541]Confusion of the Highest Order[/url] [The Dark Crusaders; ed: Sedgistan]</v>
+        <v>#1556: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1556]Gimme Shelter[/url] [Nuremgard; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1542</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>1557</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>#1542: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1542]Dangerous Liaisons[/url] [Baggieland; ed: Frieden-und Freudenland]</v>
+        <v xml:space="preserve">#1557: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1557][/url] </v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1543</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" t="s">
-        <v>30</v>
+        <v>1558</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>#1543: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1543]What Are We Paying For?[/url] [Verdant Haven; ed: Verdant Haven]</v>
+        <v xml:space="preserve">#1558: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1558][/url] </v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1544</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>1559</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>#1544: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1544]Happy Juice[/url] [Candlewhisper Archive; ed: Verdant Haven]</v>
+        <v xml:space="preserve">#1559: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1559][/url] </v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1545</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
+        <v>1560</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>#1545: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1545]Deep Down Up to No Good[/url] [Baggieland; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#1560: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1560][/url] </v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1546</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
+        <v>1561</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>#1546: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1546]Fool's Gold[/url] [Electrum; ed: Verdant Haven]</v>
+        <v xml:space="preserve">#1561: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1561][/url] </v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1547</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>20</v>
+        <v>1562</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>#1547: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1547]The Return of the Prodigal Son[/url] [Baggieland; ed: Zwangzug]</v>
+        <v xml:space="preserve">#1562: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1562][/url] </v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1548</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" t="s">
-        <v>22</v>
+        <v>1563</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>#1548: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1548]Killing in the Name of Beer[/url] [RedBrickLand; ed: Verdant Haven]</v>
+        <v xml:space="preserve">#1563: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1563][/url] </v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1549</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
+        <v>1564</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v>#1549: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1549]Easter Egg: 20 Years A-Workin'[/url] [Sanctaria, Pogaria, Verdant Haven, Zwangzug, Electrum, Gnejs, Candlewhisper Archive, Sedgistan, &amp; Noahs Second Country; ed: Sanctaria]</v>
+        <v xml:space="preserve">#1564: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1564][/url] </v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1550</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
+        <v>1565</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v>#1550: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1550]A Friend With Weed Is a Friend Indeed?[/url] [Westinor; ed: Pogaria]</v>
+        <v xml:space="preserve">#1565: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1565][/url] </v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1551</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
+        <v>1566</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v>#1551: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1551]Gimme! Gimme! Gimme![/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#1566: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1566][/url] </v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1552</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
+        <v>1567</v>
       </c>
       <c r="D16" t="str">
-        <f>"#"&amp;A16&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A16&amp;"]"&amp;B16&amp;"[/url] "&amp;C16</f>
-        <v>#1552: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1552]An Issue About Nothing[/url] [Nardin; ed: Electrum]</v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">#1567: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1567][/url] </v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1553</v>
+        <v>1568</v>
       </c>
       <c r="D17" t="str">
-        <f>"#"&amp;A17&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A17&amp;"]"&amp;B17&amp;"[/url] "&amp;C17</f>
-        <v xml:space="preserve">#1553: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1553][/url] </v>
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">#1568: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1568][/url] </v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1554</v>
+        <v>1569</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1554: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1554][/url] </v>
+        <v xml:space="preserve">#1569: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1569][/url] </v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>1555</v>
+        <v>1570</v>
       </c>
       <c r="D19" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1555: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1555][/url] </v>
+        <v xml:space="preserve">#1570: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1570][/url] </v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1556</v>
+        <v>1571</v>
       </c>
       <c r="D20" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1556: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1556][/url] </v>
+        <v xml:space="preserve">#1571: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1571][/url] </v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1572</v>
+      </c>
+      <c r="D21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">#1572: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1572][/url] </v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1573</v>
+      </c>
+      <c r="D22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">#1573: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1573][/url] </v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1574</v>
+      </c>
+      <c r="D23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">#1574: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1574][/url] </v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,39 +16,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
   </si>
   <si>
-    <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
+    <t>The Artist Is Literally Present</t>
   </si>
   <si>
-    <t>Give a Boy Some Credit</t>
+    <t>[Candlewhisper Archive; ed: Noahs Second Country]</t>
   </si>
   <si>
-    <t>Fifteen Minutes of Flame</t>
+    <t>Unequal Treatment?</t>
   </si>
   <si>
-    <t>[Savantoj; ed: Verdant Haven]</t>
+    <t>[Erynia and Draconia, Courelli; ed: Verdant Haven]</t>
   </si>
   <si>
-    <t>Trajectory x Velocity = [i]GOAALL![/i]</t>
+    <t>Skin's the Wrong Colour</t>
   </si>
   <si>
-    <t>[Baggieland; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Deaf Trap</t>
-  </si>
-  <si>
-    <t>[Cassinia; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Gimme Shelter</t>
-  </si>
-  <si>
-    <t>[Nuremgard; ed: Candlewhisper Archive]</t>
+    <t>[Sacara; ed: Candlewhisper Archive]</t>
   </si>
 </sst>
 </file>
@@ -84,8 +72,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -396,22 +385,22 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1534</v>
+        <v>1557</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="str">
-        <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1534: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1534]Give a Boy Some Credit[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+        <f t="shared" ref="D1:D18" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <v>#1557: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1557]The Artist Is Literally Present[/url] [Candlewhisper Archive; ed: Noahs Second Country]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1553</v>
+        <v>1558</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -420,13 +409,13 @@
         <v>4</v>
       </c>
       <c r="D2" t="str">
-        <f>"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
-        <v>#1553: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1553]Fifteen Minutes of Flame[/url] [Savantoj; ed: Verdant Haven]</v>
+        <f t="shared" si="0"/>
+        <v>#1558: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1558]Unequal Treatment?[/url] [Erynia and Draconia, Courelli; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1554</v>
+        <v>1559</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -435,204 +424,149 @@
         <v>6</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" ref="D3:D23" si="0">"#"&amp;A3&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A3&amp;"]"&amp;B3&amp;"[/url] "&amp;C3</f>
-        <v>#1554: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1554]Trajectory x Velocity = [i]GOAALL![/i][/url] [Baggieland; ed: Verdant Haven]</v>
+        <f t="shared" si="0"/>
+        <v>#1559: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1559]Skin's the Wrong Colour[/url] [Sacara; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1555</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
+        <v>1560</v>
+      </c>
+      <c r="C4" s="1"/>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>#1555: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1555]Deaf Trap[/url] [Cassinia; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#1560: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1560][/url] </v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1556</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>1561</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>#1556: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1556]Gimme Shelter[/url] [Nuremgard; ed: Candlewhisper Archive]</v>
+        <v xml:space="preserve">#1561: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1561][/url] </v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1557</v>
+        <v>1562</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1557: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1557][/url] </v>
+        <v xml:space="preserve">#1562: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1562][/url] </v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1558</v>
+        <v>1563</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1558: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1558][/url] </v>
+        <v xml:space="preserve">#1563: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1563][/url] </v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1559</v>
+        <v>1564</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1559: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1559][/url] </v>
+        <v xml:space="preserve">#1564: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1564][/url] </v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1560</v>
+        <v>1565</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1560: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1560][/url] </v>
+        <v xml:space="preserve">#1565: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1565][/url] </v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1561</v>
+        <v>1566</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1561: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1561][/url] </v>
+        <v xml:space="preserve">#1566: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1566][/url] </v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1562</v>
+        <v>1567</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1562: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1562][/url] </v>
+        <v xml:space="preserve">#1567: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1567][/url] </v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1563</v>
+        <v>1568</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1563: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1563][/url] </v>
+        <v xml:space="preserve">#1568: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1568][/url] </v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1564</v>
+        <v>1569</v>
       </c>
       <c r="D13" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1564: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1564][/url] </v>
+        <v xml:space="preserve">#1569: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1569][/url] </v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1565</v>
+        <v>1570</v>
       </c>
       <c r="D14" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1565: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1565][/url] </v>
+        <v xml:space="preserve">#1570: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1570][/url] </v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1566</v>
+        <v>1571</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1566: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1566][/url] </v>
+        <v xml:space="preserve">#1571: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1571][/url] </v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1567</v>
+        <v>1572</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1567: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1567][/url] </v>
+        <v xml:space="preserve">#1572: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1572][/url] </v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1568</v>
+        <v>1573</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1568: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1568][/url] </v>
+        <v xml:space="preserve">#1573: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1573][/url] </v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1569</v>
+        <v>1574</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1569: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1569][/url] </v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>1570</v>
-      </c>
-      <c r="D19" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1570: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1570][/url] </v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20">
-        <v>1571</v>
-      </c>
-      <c r="D20" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1571: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1571][/url] </v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21">
-        <v>1572</v>
-      </c>
-      <c r="D21" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1572: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1572][/url] </v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22">
-        <v>1573</v>
-      </c>
-      <c r="D22" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1573: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1573][/url] </v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>1574</v>
-      </c>
-      <c r="D23" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">#1574: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1574][/url] </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
   </si>
@@ -37,6 +37,66 @@
   </si>
   <si>
     <t>[Sacara; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Dead Gay</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Murderers Making Money?</t>
+  </si>
+  <si>
+    <t>[The United Union; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Shapes of Your Own Choosing</t>
+  </si>
+  <si>
+    <t>[Verdant Haven; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Apostropocalypse Now</t>
+  </si>
+  <si>
+    <t>[Wentland; ed: Electrum]</t>
+  </si>
+  <si>
+    <t>Goodbye Yellow Brick Road</t>
+  </si>
+  <si>
+    <t>[Talchyon; ed: SherpDaWerp]</t>
+  </si>
+  <si>
+    <t>The Ultimate Showdown of Ultimate Gluttony</t>
+  </si>
+  <si>
+    <t>[Millenhaal; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Consensus Controversy</t>
+  </si>
+  <si>
+    <t>[Logi Apeir; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Of Health and Wealth</t>
+  </si>
+  <si>
+    <t>[Wischland; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Palate Torture</t>
+  </si>
+  <si>
+    <t>[New Anarchisticstan; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>The Not-So-Long Arm of the Law</t>
+  </si>
+  <si>
+    <t>[West Barack and East Obama; ed: Pogaria]</t>
   </si>
 </sst>
 </file>
@@ -77,7 +137,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -85,9 +145,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -125,7 +185,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -195,7 +255,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -372,10 +432,10 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D4" sqref="D4:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="32.76171875" customWidth="1"/>
@@ -432,91 +492,150 @@
       <c r="A4">
         <v>1560</v>
       </c>
-      <c r="C4" s="1"/>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1560: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1560][/url] </v>
+        <v>#1560: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1560]Dead Gay[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>1561</v>
       </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1561: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1561][/url] </v>
+        <v>#1561: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1561]Murderers Making Money?[/url] [The United Union; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>1562</v>
       </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1562: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1562][/url] </v>
+        <v>#1562: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1562]Shapes of Your Own Choosing[/url] [Verdant Haven; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>1563</v>
       </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1563: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1563][/url] </v>
+        <v>#1563: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1563]Apostropocalypse Now[/url] [Wentland; ed: Electrum]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>1564</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1564: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1564][/url] </v>
+        <v>#1564: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1564]Goodbye Yellow Brick Road[/url] [Talchyon; ed: SherpDaWerp]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
         <v>1565</v>
       </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1565: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1565][/url] </v>
+        <v>#1565: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1565]The Ultimate Showdown of Ultimate Gluttony[/url] [Millenhaal; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
         <v>1566</v>
       </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1566: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1566][/url] </v>
+        <v>#1566: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1566]Consensus Controversy[/url] [Logi Apeir; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
         <v>1567</v>
       </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1567: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1567][/url] </v>
+        <v>#1567: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1567]Of Health and Wealth[/url] [Wischland; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>1568</v>
       </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1568: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1568][/url] </v>
+        <v>#1568: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1568]Palate Torture[/url] [New Anarchisticstan; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>1569</v>
       </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
       <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1569: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1569][/url] </v>
+        <f>"#"&amp;A13&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A13&amp;"]"&amp;B13&amp;"[/url] "&amp;C13</f>
+        <v>#1569: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1569]The Not-So-Long Arm of the Law[/url] [West Barack and East Obama; ed: Pogaria]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -524,7 +643,7 @@
         <v>1570</v>
       </c>
       <c r="D14" t="str">
-        <f t="shared" si="0"/>
+        <f>"#"&amp;A14&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A14&amp;"]"&amp;B14&amp;"[/url] "&amp;C14</f>
         <v xml:space="preserve">#1570: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1570][/url] </v>
       </c>
     </row>
@@ -576,7 +695,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="36.3515625" customWidth="1"/>
   </cols>
@@ -597,7 +716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,87 +16,147 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>[b][anchor=1521]#1521[/anchor]: TBD[/b]</t>
-  </si>
-  <si>
-    <t>The Artist Is Literally Present</t>
-  </si>
-  <si>
-    <t>[Candlewhisper Archive; ed: Noahs Second Country]</t>
-  </si>
-  <si>
-    <t>Unequal Treatment?</t>
-  </si>
-  <si>
-    <t>[Erynia and Draconia, Courelli; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Skin's the Wrong Colour</t>
-  </si>
-  <si>
-    <t>[Sacara; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Dead Gay</t>
-  </si>
-  <si>
-    <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Murderers Making Money?</t>
-  </si>
-  <si>
-    <t>[The United Union; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Shapes of Your Own Choosing</t>
-  </si>
-  <si>
-    <t>[Verdant Haven; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Apostropocalypse Now</t>
-  </si>
-  <si>
-    <t>[Wentland; ed: Electrum]</t>
-  </si>
-  <si>
-    <t>Goodbye Yellow Brick Road</t>
-  </si>
-  <si>
-    <t>[Talchyon; ed: SherpDaWerp]</t>
-  </si>
-  <si>
-    <t>The Ultimate Showdown of Ultimate Gluttony</t>
-  </si>
-  <si>
-    <t>[Millenhaal; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Consensus Controversy</t>
-  </si>
-  <si>
-    <t>[Logi Apeir; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>Of Health and Wealth</t>
-  </si>
-  <si>
-    <t>[Wischland; ed: Candlewhisper Archive]</t>
-  </si>
-  <si>
-    <t>Palate Torture</t>
-  </si>
-  <si>
-    <t>[New Anarchisticstan; ed: Verdant Haven]</t>
-  </si>
-  <si>
-    <t>The Not-So-Long Arm of the Law</t>
-  </si>
-  <si>
-    <t>[West Barack and East Obama; ed: Pogaria]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
+  <si>
+    <t>[b][anchor=1572]#1572[/anchor]: Eco Warriors [Sedgistan; ed: Verdant Haven][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1573]#1573[/anchor]: Unseen Academia [Cefalonia; ed: Candlewhisper Archive][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1574]#1574[/anchor]: Fowl Play [West Barack and East Obama; ed: Baggieland][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1575]#1575[/anchor]: Unequal Devolution [Circulationem Pecunia; ed: SherpDaWerp][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1576]#1576[/anchor]: Liquidity Problems [Verdant Haven; ed: Candlewhisper Archive][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1577]#1577[/anchor]: All About the Hustle [The Free Joy State; ed: Candlewhisper Archive][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1578]#1578[/anchor]: The Magical Adventures of @LEADER@@ [Kaschovia; ed: Candlewhisper Archive][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1579]#1579[/anchor]: A High-Interest Coupnundrum [Hulldom; ed: Verdant Haven][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1580]#1580[/anchor]: Profitable for Doctrine [Tinhampton; ed: Verdant Haven][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1581]#1581[/anchor]: TBD[/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1582]#1582[/anchor]: Hospital Problems Ramping Up [Klaus Devestatorie, ed: Verdany Haven][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1583]#1583[/anchor]: Spare the (Plutonium) Rod [Cretox State; ed: Baggieland][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1584]#1584[/anchor]: Loose Lips, Characters Shipped? [Novo Terres; ed: Pogaria][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1585]#1585[/anchor]: The Taste of Revenge [Edush; ed: Gnejs][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1586]#1586[/anchor]: Don’t Point That Thing at Me! [Mierria; ed: Westinor][/b]</t>
+  </si>
+  <si>
+    <t>[b][anchor=1587]#1587[/anchor]: @@DEMONYM@@, Interrupted [Reploid Productions][/b]</t>
+  </si>
+  <si>
+    <t>Eco Warriors</t>
+  </si>
+  <si>
+    <t>Unseen Academia</t>
+  </si>
+  <si>
+    <t>Fowl Play</t>
+  </si>
+  <si>
+    <t>Unequal Devolution</t>
+  </si>
+  <si>
+    <t>Liquidity Problems</t>
+  </si>
+  <si>
+    <t>All About the Hustle</t>
+  </si>
+  <si>
+    <t>The Magical Adventures of @LEADER@@</t>
+  </si>
+  <si>
+    <t>A High-Interest Coupnundrum</t>
+  </si>
+  <si>
+    <t>Profitable for Doctrine</t>
+  </si>
+  <si>
+    <t>Hospital Problems Ramping Up</t>
+  </si>
+  <si>
+    <t>Spare the (Plutonium) Rod</t>
+  </si>
+  <si>
+    <t>Loose Lips, Characters Shipped?</t>
+  </si>
+  <si>
+    <t>The Taste of Revenge</t>
+  </si>
+  <si>
+    <t>Don’t Point That Thing at Me!</t>
+  </si>
+  <si>
+    <t>DEMONYM, Interrupted</t>
+  </si>
+  <si>
+    <t>[Sedgistan; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>[Cefalonia; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[West Barack and East Obama; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>[Circulationem Pecunia; ed: SherpDaWerp]</t>
+  </si>
+  <si>
+    <t>[Verdant Haven; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[The Free Joy State; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Kaschovia; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Hulldom; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>[Tinhampton; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>[Klaus Devestatorie, ed: Verdany Haven]</t>
+  </si>
+  <si>
+    <t>[Cretox State; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>[Novo Terres; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>[Edush; ed: Gnejs]</t>
+  </si>
+  <si>
+    <t>[Mierria; ed: Westinor]</t>
+  </si>
+  <si>
+    <t>[Reploid Productions]</t>
   </si>
 </sst>
 </file>
@@ -132,12 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -145,9 +204,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -185,7 +244,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -255,7 +314,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -429,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D13"/>
+      <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -445,242 +504,340 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1557</v>
+        <v>1572</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D1" t="str">
         <f t="shared" ref="D1:D18" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1557: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1557]The Artist Is Literally Present[/url] [Candlewhisper Archive; ed: Noahs Second Country]</v>
+        <v>#1572: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1572]Eco Warriors[/url] [Sedgistan; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1558</v>
+        <v>1573</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="D2" t="str">
         <f t="shared" si="0"/>
-        <v>#1558: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1558]Unequal Treatment?[/url] [Erynia and Draconia, Courelli; ed: Verdant Haven]</v>
+        <v>#1573: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1573]Unseen Academia[/url] [Cefalonia; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1559</v>
+        <v>1574</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
-        <v>#1559: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1559]Skin's the Wrong Colour[/url] [Sacara; ed: Candlewhisper Archive]</v>
+        <v>#1574: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1574]Fowl Play[/url] [West Barack and East Obama; ed: Baggieland]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1560</v>
+        <v>1575</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
       </c>
       <c r="D4" t="str">
         <f t="shared" si="0"/>
-        <v>#1560: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1560]Dead Gay[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+        <v>#1575: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1575]Unequal Devolution[/url] [Circulationem Pecunia; ed: SherpDaWerp]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1561</v>
+        <v>1576</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="D5" t="str">
         <f t="shared" si="0"/>
-        <v>#1561: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1561]Murderers Making Money?[/url] [The United Union; ed: Candlewhisper Archive]</v>
+        <v>#1576: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1576]Liquidity Problems[/url] [Verdant Haven; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1562</v>
+        <v>1577</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
-        <v>#1562: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1562]Shapes of Your Own Choosing[/url] [Verdant Haven; ed: Verdant Haven]</v>
+        <v>#1577: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1577]All About the Hustle[/url] [The Free Joy State; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1563</v>
+        <v>1578</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
-        <v>#1563: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1563]Apostropocalypse Now[/url] [Wentland; ed: Electrum]</v>
+        <v>#1578: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1578]The Magical Adventures of @LEADER@@[/url] [Kaschovia; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1564</v>
+        <v>1579</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="D8" t="str">
         <f t="shared" si="0"/>
-        <v>#1564: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1564]Goodbye Yellow Brick Road[/url] [Talchyon; ed: SherpDaWerp]</v>
+        <v>#1579: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1579]A High-Interest Coupnundrum[/url] [Hulldom; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1565</v>
+        <v>1580</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="D9" t="str">
         <f t="shared" si="0"/>
-        <v>#1565: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1565]The Ultimate Showdown of Ultimate Gluttony[/url] [Millenhaal; ed: Verdant Haven]</v>
+        <v>#1580: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1580]Profitable for Doctrine[/url] [Tinhampton; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1566</v>
+        <v>1581</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D10" t="str">
         <f t="shared" si="0"/>
-        <v>#1566: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1566]Consensus Controversy[/url] [Logi Apeir; ed: Verdant Haven]</v>
+        <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]TBD[/url] TBD</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1567</v>
+        <v>1582</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D11" t="str">
         <f t="shared" si="0"/>
-        <v>#1567: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1567]Of Health and Wealth[/url] [Wischland; ed: Candlewhisper Archive]</v>
+        <v>#1582: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1582]Hospital Problems Ramping Up[/url] [Klaus Devestatorie, ed: Verdany Haven]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1568</v>
+        <v>1583</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D12" t="str">
         <f t="shared" si="0"/>
-        <v>#1568: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1568]Palate Torture[/url] [New Anarchisticstan; ed: Verdant Haven]</v>
+        <v>#1583: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1583]Spare the (Plutonium) Rod[/url] [Cretox State; ed: Baggieland]</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1569</v>
+        <v>1584</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D13" t="str">
         <f>"#"&amp;A13&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A13&amp;"]"&amp;B13&amp;"[/url] "&amp;C13</f>
-        <v>#1569: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1569]The Not-So-Long Arm of the Law[/url] [West Barack and East Obama; ed: Pogaria]</v>
+        <v>#1584: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1584]Loose Lips, Characters Shipped?[/url] [Novo Terres; ed: Pogaria]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1570</v>
+        <v>1585</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
       </c>
       <c r="D14" t="str">
         <f>"#"&amp;A14&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A14&amp;"]"&amp;B14&amp;"[/url] "&amp;C14</f>
-        <v xml:space="preserve">#1570: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1570][/url] </v>
+        <v>#1585: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1585]The Taste of Revenge[/url] [Edush; ed: Gnejs]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1571</v>
+        <v>1586</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
       </c>
       <c r="D15" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1571: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1571][/url] </v>
+        <v>#1586: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1586]Don’t Point That Thing at Me![/url] [Mierria; ed: Westinor]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1572</v>
+        <v>1587</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
       <c r="D16" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1572: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1572][/url] </v>
+        <v>#1587: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1587]DEMONYM, Interrupted[/url] [Reploid Productions]</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1573</v>
+        <v>1588</v>
       </c>
       <c r="D17" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1573: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1573][/url] </v>
+        <v xml:space="preserve">#1588: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1588][/url] </v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1574</v>
+        <v>1589</v>
       </c>
       <c r="D18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">#1574: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1574][/url] </v>
+        <v xml:space="preserve">#1589: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1589][/url] </v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -691,18 +848,143 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="36.3515625" customWidth="1"/>
+    <col min="1" max="2" width="95.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,55 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="47">
-  <si>
-    <t>[b][anchor=1572]#1572[/anchor]: Eco Warriors [Sedgistan; ed: Verdant Haven][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1573]#1573[/anchor]: Unseen Academia [Cefalonia; ed: Candlewhisper Archive][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1574]#1574[/anchor]: Fowl Play [West Barack and East Obama; ed: Baggieland][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1575]#1575[/anchor]: Unequal Devolution [Circulationem Pecunia; ed: SherpDaWerp][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1576]#1576[/anchor]: Liquidity Problems [Verdant Haven; ed: Candlewhisper Archive][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1577]#1577[/anchor]: All About the Hustle [The Free Joy State; ed: Candlewhisper Archive][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1578]#1578[/anchor]: The Magical Adventures of @LEADER@@ [Kaschovia; ed: Candlewhisper Archive][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1579]#1579[/anchor]: A High-Interest Coupnundrum [Hulldom; ed: Verdant Haven][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1580]#1580[/anchor]: Profitable for Doctrine [Tinhampton; ed: Verdant Haven][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1581]#1581[/anchor]: TBD[/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1582]#1582[/anchor]: Hospital Problems Ramping Up [Klaus Devestatorie, ed: Verdany Haven][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1583]#1583[/anchor]: Spare the (Plutonium) Rod [Cretox State; ed: Baggieland][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1584]#1584[/anchor]: Loose Lips, Characters Shipped? [Novo Terres; ed: Pogaria][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1585]#1585[/anchor]: The Taste of Revenge [Edush; ed: Gnejs][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1586]#1586[/anchor]: Don’t Point That Thing at Me! [Mierria; ed: Westinor][/b]</t>
-  </si>
-  <si>
-    <t>[b][anchor=1587]#1587[/anchor]: @@DEMONYM@@, Interrupted [Reploid Productions][/b]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -157,6 +109,135 @@
   </si>
   <si>
     <t>[Reploid Productions]</t>
+  </si>
+  <si>
+    <t>More Popular Than @@FAITH@@</t>
+  </si>
+  <si>
+    <t>[Lislandia; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Australian rePublic; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Southland; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>[Kaschovia; ed: Westinor]</t>
+  </si>
+  <si>
+    <t>[The Ice States; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>[Caracasus; ed: Westinor]</t>
+  </si>
+  <si>
+    <t>[The Free Joy State; ed: Caracasus]</t>
+  </si>
+  <si>
+    <t>[Falafelandia; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Jutsa; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>[Frieden-und Freudenland; ed: The Free Joy State]</t>
+  </si>
+  <si>
+    <t>[Sedgistan; ed: The Free Joy State]</t>
+  </si>
+  <si>
+    <t>[Varanius; ed: Westinor]</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>[Thal Dorthat; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[The Free Joy State; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>[Millenhaal; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>[Verdant Haven; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>[Noahs Second Country; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>Losing Touch</t>
+  </si>
+  <si>
+    <t>Tinder Profiled</t>
+  </si>
+  <si>
+    <t>(You Gotta) Fight for Your Right (To Sample!)</t>
+  </si>
+  <si>
+    <t>Echoes of Deception</t>
+  </si>
+  <si>
+    <t>Flap Over Flag Fashion</t>
+  </si>
+  <si>
+    <t>Bitter Bob the Builder</t>
+  </si>
+  <si>
+    <t>Plausible Deniability</t>
+  </si>
+  <si>
+    <t>The Blame Game</t>
+  </si>
+  <si>
+    <t>Haters Are Such a Drag</t>
+  </si>
+  <si>
+    <t>Weeping Widows</t>
+  </si>
+  <si>
+    <t>Baby Blues</t>
+  </si>
+  <si>
+    <t>Mother’s Ruin</t>
+  </si>
+  <si>
+    <t>At Death’s Door</t>
+  </si>
+  <si>
+    <t>Searching for That Special Someone</t>
+  </si>
+  <si>
+    <t>Prison of the Mind</t>
+  </si>
+  <si>
+    <t>Hungry for Criticism</t>
+  </si>
+  <si>
+    <t>Book Off</t>
+  </si>
+  <si>
+    <t>My Chemical Romance</t>
+  </si>
+  <si>
+    <t>G’s Louise</t>
+  </si>
+  <si>
+    <t>One Big Watering Hole</t>
+  </si>
+  <si>
+    <t>Circling the Brain Drain</t>
+  </si>
+  <si>
+    <t>[West Barack and East Obama; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Fr ance; ed: Pogaria]</t>
   </si>
 </sst>
 </file>
@@ -204,7 +285,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -488,13 +569,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A16"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="32.76171875" customWidth="1"/>
@@ -504,343 +585,354 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1">
-        <v>1572</v>
+        <v>1581</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D18" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
-        <v>#1572: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1572]Eco Warriors[/url] [Sedgistan; ed: Verdant Haven]</v>
+        <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]Circling the Brain Drain[/url] [West Barack and East Obama; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>1573</v>
+        <v>1588</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D2" t="str">
-        <f t="shared" si="0"/>
-        <v>#1573: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1573]Unseen Academia[/url] [Cefalonia; ed: Candlewhisper Archive]</v>
+        <f>"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
+        <v>#1588: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1588]More Popular Than @@FAITH@@[/url] [Fr ance; ed: Pogaria]</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>1574</v>
+        <v>1589</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
         <v>33</v>
       </c>
       <c r="D3" t="str">
-        <f t="shared" si="0"/>
-        <v>#1574: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1574]Fowl Play[/url] [West Barack and East Obama; ed: Baggieland]</v>
+        <f>"#"&amp;A3&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A3&amp;"]"&amp;B3&amp;"[/url] "&amp;C3</f>
+        <v>#1589: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1589]Losing Touch[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>1575</v>
+        <v>1590</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
       </c>
       <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>#1575: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1575]Unequal Devolution[/url] [Circulationem Pecunia; ed: SherpDaWerp]</v>
+        <f>"#"&amp;A4&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A4&amp;"]"&amp;B4&amp;"[/url] "&amp;C4</f>
+        <v>#1590: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1590]Tinder Profiled[/url] [Australian rePublic; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>1576</v>
+        <v>1591</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
       <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>#1576: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1576]Liquidity Problems[/url] [Verdant Haven; ed: Candlewhisper Archive]</v>
+        <f>"#"&amp;A5&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A5&amp;"]"&amp;B5&amp;"[/url] "&amp;C5</f>
+        <v>#1591: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1591](You Gotta) Fight for Your Right (To Sample!)[/url] [Southland; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1577</v>
+        <v>1592</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>#1577: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1577]All About the Hustle[/url] [The Free Joy State; ed: Candlewhisper Archive]</v>
+        <f>"#"&amp;A6&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A6&amp;"]"&amp;B6&amp;"[/url] "&amp;C6</f>
+        <v>#1592: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1592]Echoes of Deception[/url] [Kaschovia; ed: Westinor]</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>1578</v>
+        <v>1593</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>#1578: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1578]The Magical Adventures of @LEADER@@[/url] [Kaschovia; ed: Candlewhisper Archive]</v>
+        <f>"#"&amp;A7&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A7&amp;"]"&amp;B7&amp;"[/url] "&amp;C7</f>
+        <v>#1593: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1593]Flap Over Flag Fashion[/url] [Lislandia; ed: Baggieland]</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>1579</v>
+        <v>1594</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>#1579: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1579]A High-Interest Coupnundrum[/url] [Hulldom; ed: Verdant Haven]</v>
+        <f>"#"&amp;A8&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A8&amp;"]"&amp;B8&amp;"[/url] "&amp;C8</f>
+        <v>#1594: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1594]Bitter Bob the Builder[/url] [The Ice States; ed: Kaschovia]</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>1580</v>
+        <v>1595</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>#1580: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1580]Profitable for Doctrine[/url] [Tinhampton; ed: Verdant Haven]</v>
+        <f>"#"&amp;A9&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A9&amp;"]"&amp;B9&amp;"[/url] "&amp;C9</f>
+        <v>#1595: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1595]Plausible Deniability[/url] [Caracasus; ed: Westinor]</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>1581</v>
+        <v>1596</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]TBD[/url] TBD</v>
+        <f>"#"&amp;A10&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A10&amp;"]"&amp;B10&amp;"[/url] "&amp;C10</f>
+        <v>#1596: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1596]The Blame Game[/url] [The Free Joy State; ed: Caracasus]</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>1582</v>
+        <v>1597</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>#1582: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1582]Hospital Problems Ramping Up[/url] [Klaus Devestatorie, ed: Verdany Haven]</v>
+        <f>"#"&amp;A11&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A11&amp;"]"&amp;B11&amp;"[/url] "&amp;C11</f>
+        <v>#1597: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1597]Haters Are Such a Drag[/url] [Falafelandia; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>1583</v>
+        <v>1598</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>#1583: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1583]Spare the (Plutonium) Rod[/url] [Cretox State; ed: Baggieland]</v>
+        <f>"#"&amp;A12&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A12&amp;"]"&amp;B12&amp;"[/url] "&amp;C12</f>
+        <v>#1598: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1598]Weeping Widows[/url] [Jutsa; ed: Kaschovia]</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>1584</v>
+        <v>1599</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="str">
         <f>"#"&amp;A13&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A13&amp;"]"&amp;B13&amp;"[/url] "&amp;C13</f>
-        <v>#1584: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1584]Loose Lips, Characters Shipped?[/url] [Novo Terres; ed: Pogaria]</v>
+        <v>#1599: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1599]Baby Blues[/url] [Frieden-und Freudenland; ed: The Free Joy State]</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>1585</v>
+        <v>1600</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D14" t="str">
         <f>"#"&amp;A14&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A14&amp;"]"&amp;B14&amp;"[/url] "&amp;C14</f>
-        <v>#1585: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1585]The Taste of Revenge[/url] [Edush; ed: Gnejs]</v>
+        <v>#1600: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1600]Mother’s Ruin[/url] [The Free Joy State; ed: Candlewhisper Archive]</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>1586</v>
+        <v>1601</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" t="str">
-        <f t="shared" si="0"/>
-        <v>#1586: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1586]Don’t Point That Thing at Me![/url] [Mierria; ed: Westinor]</v>
+        <f>"#"&amp;A15&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A15&amp;"]"&amp;B15&amp;"[/url] "&amp;C15</f>
+        <v>#1601: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1601]At Death’s Door[/url] [Sedgistan; ed: The Free Joy State]</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>1587</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
+        <v>1602</v>
+      </c>
+      <c r="B16" t="str">
+        <f>"@@NAME@@’s Bark Worse Than Its Byte?"</f>
+        <v>@@NAME@@’s Bark Worse Than Its Byte?</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D16" t="str">
-        <f t="shared" si="0"/>
-        <v>#1587: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1587]DEMONYM, Interrupted[/url] [Reploid Productions]</v>
+        <f>"#"&amp;A16&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A16&amp;"]"&amp;B16&amp;"[/url] "&amp;C16</f>
+        <v>#1602: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1602]@@NAME@@’s Bark Worse Than Its Byte?[/url] [Varanius; ed: Westinor]</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>1588</v>
+        <v>1603</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>45</v>
       </c>
       <c r="D17" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1588: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1588][/url] </v>
+        <f>"#"&amp;A17&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A17&amp;"]"&amp;B17&amp;"[/url] "&amp;C17</f>
+        <v>#1603: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1603]Searching for That Special Someone[/url] [Candlewhisper Archive; ed: Pogaria]</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>1589</v>
+        <v>1604</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
       </c>
       <c r="D18" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">#1589: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1589][/url] </v>
+        <f>"#"&amp;A18&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A18&amp;"]"&amp;B18&amp;"[/url] "&amp;C18</f>
+        <v>#1604: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1604]Prison of the Mind[/url] [Thal Dorthat; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1605</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="str">
+        <f>"#"&amp;A19&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A19&amp;"]"&amp;B19&amp;"[/url] "&amp;C19</f>
+        <v>#1605: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1605]Hungry for Criticism[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1606</v>
+      </c>
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="str">
+        <f>"#"&amp;A20&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A20&amp;"]"&amp;B20&amp;"[/url] "&amp;C20</f>
+        <v>#1606: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1606]Book Off[/url] [The Free Joy State; ed: Pogaria]</v>
       </c>
     </row>
     <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1607</v>
+      </c>
       <c r="B21" t="s">
-        <v>0</v>
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" t="str">
+        <f>"#"&amp;A21&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A21&amp;"]"&amp;B21&amp;"[/url] "&amp;C21</f>
+        <v>#1607: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1607]My Chemical Romance[/url] [Millenhaal; ed: Pogaria]</v>
       </c>
     </row>
     <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1608</v>
+      </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="str">
+        <f>"#"&amp;A22&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A22&amp;"]"&amp;B22&amp;"[/url] "&amp;C22</f>
+        <v>#1608: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1608]G’s Louise[/url] [Verdant Haven; ed: Verdant Haven]</v>
       </c>
     </row>
     <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1609</v>
+      </c>
       <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="B30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="B31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2">
-      <c r="B34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
-        <v>15</v>
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" t="str">
+        <f>"#"&amp;A23&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A23&amp;"]"&amp;B23&amp;"[/url] "&amp;C23</f>
+        <v>#1609: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1609]One Big Watering Hole[/url] [Noahs Second Country; ed: Baggieland]</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:D23">
+    <sortCondition ref="A1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -854,137 +946,137 @@
       <selection sqref="A1:A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="2" width="95.703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
-      </c>
-      <c r="B12" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -998,7 +1090,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="267" yWindow="93" windowWidth="13720" windowHeight="5233"/>
@@ -11,12 +11,12 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" refMode="R1C1"/>
+  <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -238,6 +238,54 @@
   </si>
   <si>
     <t>[Fr ance; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>[West Barack and East Obama; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>[Lancaster of Wessex; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Verdant Haven; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>[Cielearda; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Pogaria; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>[Osheiga; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>[Ruotsaland; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>[Verdant Haven; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>Keep Me Appraised?</t>
+  </si>
+  <si>
+    <t>Filial Fidelity</t>
+  </si>
+  <si>
+    <t>Immune Deficiencies</t>
+  </si>
+  <si>
+    <t>Incarceration Sensation</t>
+  </si>
+  <si>
+    <t>Fauxthentic Food</t>
+  </si>
+  <si>
+    <t>Passports-4-Purchase</t>
+  </si>
+  <si>
+    <t>Beyond the Focal Point</t>
+  </si>
+  <si>
+    <t>The Defenestration of Progg</t>
   </si>
 </sst>
 </file>
@@ -569,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -594,7 +642,7 @@
         <v>72</v>
       </c>
       <c r="D1" t="str">
-        <f>"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <f t="shared" ref="D1:D31" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
         <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]Circling the Brain Drain[/url] [West Barack and East Obama; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -609,7 +657,7 @@
         <v>73</v>
       </c>
       <c r="D2" t="str">
-        <f>"#"&amp;A2&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A2&amp;"]"&amp;B2&amp;"[/url] "&amp;C2</f>
+        <f t="shared" si="0"/>
         <v>#1588: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1588]More Popular Than @@FAITH@@[/url] [Fr ance; ed: Pogaria]</v>
       </c>
     </row>
@@ -624,7 +672,7 @@
         <v>33</v>
       </c>
       <c r="D3" t="str">
-        <f>"#"&amp;A3&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A3&amp;"]"&amp;B3&amp;"[/url] "&amp;C3</f>
+        <f t="shared" si="0"/>
         <v>#1589: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1589]Losing Touch[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -639,7 +687,7 @@
         <v>34</v>
       </c>
       <c r="D4" t="str">
-        <f>"#"&amp;A4&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A4&amp;"]"&amp;B4&amp;"[/url] "&amp;C4</f>
+        <f t="shared" si="0"/>
         <v>#1590: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1590]Tinder Profiled[/url] [Australian rePublic; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -654,7 +702,7 @@
         <v>35</v>
       </c>
       <c r="D5" t="str">
-        <f>"#"&amp;A5&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A5&amp;"]"&amp;B5&amp;"[/url] "&amp;C5</f>
+        <f t="shared" si="0"/>
         <v>#1591: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1591](You Gotta) Fight for Your Right (To Sample!)[/url] [Southland; ed: Verdant Haven]</v>
       </c>
     </row>
@@ -669,7 +717,7 @@
         <v>36</v>
       </c>
       <c r="D6" t="str">
-        <f>"#"&amp;A6&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A6&amp;"]"&amp;B6&amp;"[/url] "&amp;C6</f>
+        <f t="shared" si="0"/>
         <v>#1592: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1592]Echoes of Deception[/url] [Kaschovia; ed: Westinor]</v>
       </c>
     </row>
@@ -684,7 +732,7 @@
         <v>32</v>
       </c>
       <c r="D7" t="str">
-        <f>"#"&amp;A7&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A7&amp;"]"&amp;B7&amp;"[/url] "&amp;C7</f>
+        <f t="shared" si="0"/>
         <v>#1593: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1593]Flap Over Flag Fashion[/url] [Lislandia; ed: Baggieland]</v>
       </c>
     </row>
@@ -699,7 +747,7 @@
         <v>37</v>
       </c>
       <c r="D8" t="str">
-        <f>"#"&amp;A8&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A8&amp;"]"&amp;B8&amp;"[/url] "&amp;C8</f>
+        <f t="shared" si="0"/>
         <v>#1594: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1594]Bitter Bob the Builder[/url] [The Ice States; ed: Kaschovia]</v>
       </c>
     </row>
@@ -714,7 +762,7 @@
         <v>38</v>
       </c>
       <c r="D9" t="str">
-        <f>"#"&amp;A9&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A9&amp;"]"&amp;B9&amp;"[/url] "&amp;C9</f>
+        <f t="shared" si="0"/>
         <v>#1595: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1595]Plausible Deniability[/url] [Caracasus; ed: Westinor]</v>
       </c>
     </row>
@@ -729,7 +777,7 @@
         <v>39</v>
       </c>
       <c r="D10" t="str">
-        <f>"#"&amp;A10&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A10&amp;"]"&amp;B10&amp;"[/url] "&amp;C10</f>
+        <f t="shared" si="0"/>
         <v>#1596: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1596]The Blame Game[/url] [The Free Joy State; ed: Caracasus]</v>
       </c>
     </row>
@@ -744,7 +792,7 @@
         <v>40</v>
       </c>
       <c r="D11" t="str">
-        <f>"#"&amp;A11&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A11&amp;"]"&amp;B11&amp;"[/url] "&amp;C11</f>
+        <f t="shared" si="0"/>
         <v>#1597: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1597]Haters Are Such a Drag[/url] [Falafelandia; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -759,7 +807,7 @@
         <v>41</v>
       </c>
       <c r="D12" t="str">
-        <f>"#"&amp;A12&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A12&amp;"]"&amp;B12&amp;"[/url] "&amp;C12</f>
+        <f t="shared" si="0"/>
         <v>#1598: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1598]Weeping Widows[/url] [Jutsa; ed: Kaschovia]</v>
       </c>
     </row>
@@ -774,7 +822,7 @@
         <v>42</v>
       </c>
       <c r="D13" t="str">
-        <f>"#"&amp;A13&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A13&amp;"]"&amp;B13&amp;"[/url] "&amp;C13</f>
+        <f t="shared" si="0"/>
         <v>#1599: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1599]Baby Blues[/url] [Frieden-und Freudenland; ed: The Free Joy State]</v>
       </c>
     </row>
@@ -789,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="D14" t="str">
-        <f>"#"&amp;A14&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A14&amp;"]"&amp;B14&amp;"[/url] "&amp;C14</f>
+        <f t="shared" si="0"/>
         <v>#1600: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1600]Mother’s Ruin[/url] [The Free Joy State; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -804,7 +852,7 @@
         <v>43</v>
       </c>
       <c r="D15" t="str">
-        <f>"#"&amp;A15&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A15&amp;"]"&amp;B15&amp;"[/url] "&amp;C15</f>
+        <f t="shared" si="0"/>
         <v>#1601: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1601]At Death’s Door[/url] [Sedgistan; ed: The Free Joy State]</v>
       </c>
     </row>
@@ -820,7 +868,7 @@
         <v>44</v>
       </c>
       <c r="D16" t="str">
-        <f>"#"&amp;A16&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A16&amp;"]"&amp;B16&amp;"[/url] "&amp;C16</f>
+        <f t="shared" si="0"/>
         <v>#1602: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1602]@@NAME@@’s Bark Worse Than Its Byte?[/url] [Varanius; ed: Westinor]</v>
       </c>
     </row>
@@ -835,7 +883,7 @@
         <v>45</v>
       </c>
       <c r="D17" t="str">
-        <f>"#"&amp;A17&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A17&amp;"]"&amp;B17&amp;"[/url] "&amp;C17</f>
+        <f t="shared" si="0"/>
         <v>#1603: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1603]Searching for That Special Someone[/url] [Candlewhisper Archive; ed: Pogaria]</v>
       </c>
     </row>
@@ -850,7 +898,7 @@
         <v>46</v>
       </c>
       <c r="D18" t="str">
-        <f>"#"&amp;A18&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A18&amp;"]"&amp;B18&amp;"[/url] "&amp;C18</f>
+        <f t="shared" si="0"/>
         <v>#1604: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1604]Prison of the Mind[/url] [Thal Dorthat; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -865,7 +913,7 @@
         <v>33</v>
       </c>
       <c r="D19" t="str">
-        <f>"#"&amp;A19&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A19&amp;"]"&amp;B19&amp;"[/url] "&amp;C19</f>
+        <f t="shared" si="0"/>
         <v>#1605: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1605]Hungry for Criticism[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -880,7 +928,7 @@
         <v>47</v>
       </c>
       <c r="D20" t="str">
-        <f>"#"&amp;A20&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A20&amp;"]"&amp;B20&amp;"[/url] "&amp;C20</f>
+        <f t="shared" si="0"/>
         <v>#1606: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1606]Book Off[/url] [The Free Joy State; ed: Pogaria]</v>
       </c>
     </row>
@@ -895,7 +943,7 @@
         <v>48</v>
       </c>
       <c r="D21" t="str">
-        <f>"#"&amp;A21&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A21&amp;"]"&amp;B21&amp;"[/url] "&amp;C21</f>
+        <f t="shared" si="0"/>
         <v>#1607: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1607]My Chemical Romance[/url] [Millenhaal; ed: Pogaria]</v>
       </c>
     </row>
@@ -910,7 +958,7 @@
         <v>49</v>
       </c>
       <c r="D22" t="str">
-        <f>"#"&amp;A22&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A22&amp;"]"&amp;B22&amp;"[/url] "&amp;C22</f>
+        <f t="shared" si="0"/>
         <v>#1608: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1608]G’s Louise[/url] [Verdant Haven; ed: Verdant Haven]</v>
       </c>
     </row>
@@ -925,8 +973,128 @@
         <v>50</v>
       </c>
       <c r="D23" t="str">
-        <f>"#"&amp;A23&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A23&amp;"]"&amp;B23&amp;"[/url] "&amp;C23</f>
+        <f t="shared" si="0"/>
         <v>#1609: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1609]One Big Watering Hole[/url] [Noahs Second Country; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>1610</v>
+      </c>
+      <c r="B24" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="str">
+        <f t="shared" si="0"/>
+        <v>#1610: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1610]Keep Me Appraised?[/url] [Lancaster of Wessex; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>1611</v>
+      </c>
+      <c r="B25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+      <c r="D25" t="str">
+        <f t="shared" si="0"/>
+        <v>#1611: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1611]Filial Fidelity[/url] [Verdant Haven; ed: Pogaria]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1612</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" t="str">
+        <f t="shared" si="0"/>
+        <v>#1612: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1612]Immune Deficiencies[/url] [Cielearda; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27">
+        <v>1613</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="str">
+        <f t="shared" si="0"/>
+        <v>#1613: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1613]Incarceration Sensation[/url] [Pogaria; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>1614</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="str">
+        <f t="shared" si="0"/>
+        <v>#1614: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1614]Fauxthentic Food[/url] [Osheiga; ed: Verdant Haven]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
+        <v>1615</v>
+      </c>
+      <c r="B29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D29" t="str">
+        <f t="shared" si="0"/>
+        <v>#1615: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1615]Passports-4-Purchase[/url] [Ruotsaland; ed: Pogaria]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>1616</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" t="str">
+        <f t="shared" si="0"/>
+        <v>#1616: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1616]Beyond the Focal Point[/url] [West Barack and East Obama; ed: Kaschovia]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>1617</v>
+      </c>
+      <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
+        <v>81</v>
+      </c>
+      <c r="D31" t="str">
+        <f t="shared" si="0"/>
+        <v>#1617: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1617]The Defenestration of Progg[/url] [Verdant Haven; ed: Baggieland]</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="267" yWindow="93" windowWidth="13720" windowHeight="5233"/>
@@ -11,12 +11,12 @@
     <sheet name="Blad2" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="125725" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -286,6 +286,42 @@
   </si>
   <si>
     <t>The Defenestration of Progg</t>
+  </si>
+  <si>
+    <t>Sextual Healing</t>
+  </si>
+  <si>
+    <t>[Chan island; ed: SherpDaWerp]</t>
+  </si>
+  <si>
+    <t>Something Amiss in the @@ANIMAL@@ Mountains</t>
+  </si>
+  <si>
+    <t>[Kaschovia; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Ballooning Out of Proportions</t>
+  </si>
+  <si>
+    <t>[Cha-os; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>The Space Between</t>
+  </si>
+  <si>
+    <t>[Luna Amore; ed: Westinor]</t>
+  </si>
+  <si>
+    <t>Border Burden</t>
+  </si>
+  <si>
+    <t>[Ostrovskiy, Giovanniland; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>The @@MAN_1@@ in the Iron Lung</t>
+  </si>
+  <si>
+    <t>[Jutsa; ed: Luna Amore]</t>
   </si>
 </sst>
 </file>
@@ -325,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -333,9 +369,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -373,7 +409,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -443,7 +479,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -617,10 +653,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:A31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -642,7 +678,7 @@
         <v>72</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D31" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <f t="shared" ref="D1:D37" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
         <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]Circling the Brain Drain[/url] [West Barack and East Obama; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -1095,6 +1131,96 @@
       <c r="D31" t="str">
         <f t="shared" si="0"/>
         <v>#1617: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1617]The Defenestration of Progg[/url] [Verdant Haven; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
+        <v>1618</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="str">
+        <f t="shared" si="0"/>
+        <v>#1618: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1618]Sextual Healing[/url] [Chan island; ed: SherpDaWerp]</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>1619</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" t="str">
+        <f t="shared" si="0"/>
+        <v>#1619: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1619]Something Amiss in the @@ANIMAL@@ Mountains[/url] [Kaschovia; ed: Verdant Haven]</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>1620</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="str">
+        <f t="shared" si="0"/>
+        <v>#1620: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1620]Ballooning Out of Proportions[/url] [Cha-os; ed: Kaschovia]</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>1621</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="str">
+        <f t="shared" si="0"/>
+        <v>#1621: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1621]The Space Between[/url] [Luna Amore; ed: Westinor]</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>1622</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" t="str">
+        <f t="shared" si="0"/>
+        <v>#1622: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1622]Border Burden[/url] [Ostrovskiy, Giovanniland; ed: Verdant Haven]</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>1623</v>
+      </c>
+      <c r="B37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" t="str">
+        <f t="shared" si="0"/>
+        <v>#1623: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1623]The @@MAN_1@@ in the Iron Lung[/url] [Jutsa; ed: Luna Amore]</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +1237,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -322,6 +322,33 @@
   </si>
   <si>
     <t>[Jutsa; ed: Luna Amore]</t>
+  </si>
+  <si>
+    <t>@@CAPITAL@@ Coffinrail</t>
+  </si>
+  <si>
+    <t>[Aphobeathesi; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>At What Price?</t>
+  </si>
+  <si>
+    <t>Wiggle Room</t>
+  </si>
+  <si>
+    <t>[West Barack and East Obama; ed: Westinor]</t>
+  </si>
+  <si>
+    <t>Snow Days on Thin Ice</t>
+  </si>
+  <si>
+    <t>[Obets; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>NEET Freaks?</t>
+  </si>
+  <si>
+    <t>[Electrum; ed: Candlewhisper Archive]</t>
   </si>
 </sst>
 </file>
@@ -361,7 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -369,9 +396,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -409,7 +436,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -479,7 +506,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,13 +680,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="32.76171875" customWidth="1"/>
@@ -678,7 +705,7 @@
         <v>72</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D37" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <f t="shared" ref="D1:D42" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
         <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]Circling the Brain Drain[/url] [West Barack and East Obama; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -1221,6 +1248,81 @@
       <c r="D37" t="str">
         <f t="shared" si="0"/>
         <v>#1623: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1623]The @@MAN_1@@ in the Iron Lung[/url] [Jutsa; ed: Luna Amore]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>1624</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="str">
+        <f t="shared" si="0"/>
+        <v>#1624: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1624]@@CAPITAL@@ Coffinrail[/url] [Aphobeathesi; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
+        <v>1625</v>
+      </c>
+      <c r="B39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39" t="str">
+        <f t="shared" si="0"/>
+        <v>#1625: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1625]At What Price?[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>1626</v>
+      </c>
+      <c r="B40" t="s">
+        <v>105</v>
+      </c>
+      <c r="C40" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" t="str">
+        <f t="shared" si="0"/>
+        <v>#1626: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1626]Wiggle Room[/url] [West Barack and East Obama; ed: Westinor]</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>1627</v>
+      </c>
+      <c r="B41" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" t="str">
+        <f t="shared" si="0"/>
+        <v>#1627: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1627]Snow Days on Thin Ice[/url] [Obets; ed: Kaschovia]</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>1628</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" t="str">
+        <f t="shared" si="0"/>
+        <v>#1628: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1628]NEET Freaks?[/url] [Electrum; ed: Candlewhisper Archive]</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +1342,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="2" width="95.703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1384,7 +1486,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -349,6 +349,48 @@
   </si>
   <si>
     <t>[Electrum; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>The Wrath of Davy Jones</t>
+  </si>
+  <si>
+    <t>[Baggieland; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>Downloadable Discourse</t>
+  </si>
+  <si>
+    <t>[Roulantinia; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>We Are Most Amused</t>
+  </si>
+  <si>
+    <t>[Nuremgard; ed: Westinor]</t>
+  </si>
+  <si>
+    <t>Unexpected Interruption of Service</t>
+  </si>
+  <si>
+    <t>Do You Think He’s Overcompensating for Something?</t>
+  </si>
+  <si>
+    <t>[Genbu Kaiden; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>The War of the Planets</t>
+  </si>
+  <si>
+    <t>[Il Sonno della Ragione Genera Mostri; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>A Sine of the Times</t>
+  </si>
+  <si>
+    <t>Holistic Healers Hassle Holy Hospitallers</t>
+  </si>
+  <si>
+    <t>[Vacatio Libertas; ed: Pogaria]</t>
   </si>
 </sst>
 </file>
@@ -680,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:D42"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A50" sqref="A43:A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -705,7 +747,7 @@
         <v>72</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D42" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <f t="shared" ref="D1:D50" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
         <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]Circling the Brain Drain[/url] [West Barack and East Obama; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -1323,6 +1365,126 @@
       <c r="D42" t="str">
         <f t="shared" si="0"/>
         <v>#1628: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1628]NEET Freaks?[/url] [Electrum; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43">
+        <v>1629</v>
+      </c>
+      <c r="B43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="0"/>
+        <v>#1629: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1629]The Wrath of Davy Jones[/url] [Baggieland; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
+        <v>1630</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="0"/>
+        <v>#1630: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1630]Downloadable Discourse[/url] [Roulantinia; ed: Kaschovia]</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>1631</v>
+      </c>
+      <c r="B45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="0"/>
+        <v>#1631: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1631]We Are Most Amused[/url] [Nuremgard; ed: Westinor]</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1632</v>
+      </c>
+      <c r="B46" t="s">
+        <v>117</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="0"/>
+        <v>#1632: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1632]Unexpected Interruption of Service[/url] [Pogaria; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>1633</v>
+      </c>
+      <c r="B47" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="0"/>
+        <v>#1633: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1633]Do You Think He’s Overcompensating for Something?[/url] [Genbu Kaiden; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1634</v>
+      </c>
+      <c r="B48" t="s">
+        <v>120</v>
+      </c>
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" t="str">
+        <f t="shared" si="0"/>
+        <v>#1634: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1634]The War of the Planets[/url] [Il Sonno della Ragione Genera Mostri; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1635</v>
+      </c>
+      <c r="B49" t="s">
+        <v>122</v>
+      </c>
+      <c r="C49" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" t="str">
+        <f t="shared" si="0"/>
+        <v>#1635: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1635]A Sine of the Times[/url] [West Barack and East Obama; ed: Westinor]</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>1570</v>
+      </c>
+      <c r="B50" t="s">
+        <v>123</v>
+      </c>
+      <c r="C50" t="s">
+        <v>124</v>
+      </c>
+      <c r="D50" t="str">
+        <f t="shared" si="0"/>
+        <v>#1570: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1570]Holistic Healers Hassle Holy Hospitallers[/url] [Vacatio Libertas; ed: Pogaria]</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -391,6 +391,45 @@
   </si>
   <si>
     <t>[Vacatio Libertas; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>In for the Long Haul</t>
+  </si>
+  <si>
+    <t>[Umbratellus; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>[color=green][i]An International Incident[/i][/color]: Children of the Atom</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Luna Amore]</t>
+  </si>
+  <si>
+    <t>The Waiting Is the Hardest Part</t>
+  </si>
+  <si>
+    <t>[Jim the Baptist &amp; Dabarastan; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>Bad Coal Models</t>
+  </si>
+  <si>
+    <t>[Crodelinam; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>See No Evil</t>
+  </si>
+  <si>
+    <t>Freedom of Depress</t>
+  </si>
+  <si>
+    <t>[Adomnar; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>When Push-itzer Comes to Shove</t>
+  </si>
+  <si>
+    <t>[Southland; ed: Klaus Devestatorie]</t>
   </si>
 </sst>
 </file>
@@ -430,7 +469,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -438,9 +477,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Kancelář">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -478,7 +517,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Kancelář">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -548,7 +587,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Kancelář">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -722,13 +761,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A50" sqref="A43:A50"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="32.76171875" customWidth="1"/>
@@ -747,7 +786,7 @@
         <v>72</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D50" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <f t="shared" ref="D1:D57" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
         <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]Circling the Brain Drain[/url] [West Barack and East Obama; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -1485,6 +1524,111 @@
       <c r="D50" t="str">
         <f t="shared" si="0"/>
         <v>#1570: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1570]Holistic Healers Hassle Holy Hospitallers[/url] [Vacatio Libertas; ed: Pogaria]</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>1636</v>
+      </c>
+      <c r="B51" t="s">
+        <v>125</v>
+      </c>
+      <c r="C51" t="s">
+        <v>126</v>
+      </c>
+      <c r="D51" t="str">
+        <f t="shared" si="0"/>
+        <v>#1636: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1636]In for the Long Haul[/url] [Umbratellus; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
+        <v>1637</v>
+      </c>
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>128</v>
+      </c>
+      <c r="D52" t="str">
+        <f t="shared" si="0"/>
+        <v>#1637: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1637][color=green][i]An International Incident[/i][/color]: Children of the Atom[/url] [Candlewhisper Archive; ed: Luna Amore]</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>1638</v>
+      </c>
+      <c r="B53" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" t="str">
+        <f t="shared" si="0"/>
+        <v>#1638: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1638]The Waiting Is the Hardest Part[/url] [Jim the Baptist &amp; Dabarastan; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>1639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>131</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="str">
+        <f t="shared" si="0"/>
+        <v>#1639: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1639]Bad Coal Models[/url] [Crodelinam; ed: Kaschovia]</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1640</v>
+      </c>
+      <c r="B55" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="0"/>
+        <v>#1640: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1640]See No Evil[/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
+        <v>1641</v>
+      </c>
+      <c r="B56" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="0"/>
+        <v>#1641: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1641]Freedom of Depress[/url] [Adomnar; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57">
+        <v>1642</v>
+      </c>
+      <c r="B57" t="s">
+        <v>136</v>
+      </c>
+      <c r="C57" t="s">
+        <v>137</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="0"/>
+        <v>#1642: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1642]When Push-itzer Comes to Shove[/url] [Southland; ed: Klaus Devestatorie]</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1648,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="2" width="95.703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1648,7 +1792,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -430,6 +430,81 @@
   </si>
   <si>
     <t>[Southland; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>Cicadas in Their Prime</t>
+  </si>
+  <si>
+    <t>[Bear Connors Paradiso; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>From Silver Spoons to Swordplay</t>
+  </si>
+  <si>
+    <t>[Bendicion; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Gone Girls</t>
+  </si>
+  <si>
+    <t>[The Free Joy State; ed: SherpDaWerp]</t>
+  </si>
+  <si>
+    <t>Is God in This Machine?</t>
+  </si>
+  <si>
+    <t>Whose House? My House!</t>
+  </si>
+  <si>
+    <t>Infant Influence</t>
+  </si>
+  <si>
+    <t>[Orcuo; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Grandma’s Getting Lucky</t>
+  </si>
+  <si>
+    <t>[Terrabod; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>Bearer of Bad Pews</t>
+  </si>
+  <si>
+    <t>[New Ropakstadt; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>You Can’t Handle the Extraterrestrial Truth!</t>
+  </si>
+  <si>
+    <t>[Klaus Devestatorie; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>Bath and Body Skunkworks</t>
+  </si>
+  <si>
+    <t>[Luna Amore; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>Dick's Pics</t>
+  </si>
+  <si>
+    <t>[All Wild Things; ed: Pogaria]</t>
+  </si>
+  <si>
+    <t>We Bought a Zoo</t>
+  </si>
+  <si>
+    <t>Surplus to Requirements</t>
+  </si>
+  <si>
+    <t>[Pax Nerdvana; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>Stealing Afoot</t>
+  </si>
+  <si>
+    <t>[Keventle; ed: Varanius]</t>
   </si>
 </sst>
 </file>
@@ -469,7 +544,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -477,9 +552,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv sady Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Kancelář">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -517,7 +592,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kancelář">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -587,7 +662,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kancelář">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -761,10 +836,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -786,7 +861,7 @@
         <v>72</v>
       </c>
       <c r="D1" t="str">
-        <f t="shared" ref="D1:D57" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
+        <f t="shared" ref="D1:D64" si="0">"#"&amp;A1&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A1&amp;"]"&amp;B1&amp;"[/url] "&amp;C1</f>
         <v>#1581: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1581]Circling the Brain Drain[/url] [West Barack and East Obama; ed: Candlewhisper Archive]</v>
       </c>
     </row>
@@ -1629,6 +1704,216 @@
       <c r="D57" t="str">
         <f t="shared" si="0"/>
         <v>#1642: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1642]When Push-itzer Comes to Shove[/url] [Southland; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>1643</v>
+      </c>
+      <c r="B58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="str">
+        <f t="shared" si="0"/>
+        <v>#1643: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1643]Cicadas in Their Prime[/url] [Bear Connors Paradiso; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>1644</v>
+      </c>
+      <c r="B59" t="s">
+        <v>140</v>
+      </c>
+      <c r="C59" t="s">
+        <v>141</v>
+      </c>
+      <c r="D59" t="str">
+        <f t="shared" si="0"/>
+        <v>#1644: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1644]From Silver Spoons to Swordplay[/url] [Bendicion; ed: Verdant Haven]</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
+        <v>1645</v>
+      </c>
+      <c r="B60" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" t="s">
+        <v>143</v>
+      </c>
+      <c r="D60" t="str">
+        <f t="shared" si="0"/>
+        <v>#1645: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1645]Gone Girls[/url] [The Free Joy State; ed: SherpDaWerp]</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>1646</v>
+      </c>
+      <c r="B61" t="s">
+        <v>144</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="str">
+        <f t="shared" si="0"/>
+        <v>#1646: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1646]Is God in This Machine?[/url] [Varanius; ed: Westinor]</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>1647</v>
+      </c>
+      <c r="B62" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62" t="str">
+        <f t="shared" si="0"/>
+        <v>#1647: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1647]Whose House? My House![/url] [Candlewhisper Archive; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>1648</v>
+      </c>
+      <c r="B63" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" t="s">
+        <v>147</v>
+      </c>
+      <c r="D63" t="str">
+        <f t="shared" si="0"/>
+        <v>#1648: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1648]Infant Influence[/url] [Orcuo; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>1649</v>
+      </c>
+      <c r="B64" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" t="str">
+        <f t="shared" si="0"/>
+        <v>#1649: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1649]Grandma’s Getting Lucky[/url] [Terrabod; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>1650</v>
+      </c>
+      <c r="B65" t="s">
+        <v>150</v>
+      </c>
+      <c r="C65" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" t="str">
+        <f t="shared" ref="D65:D71" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>1651</v>
+      </c>
+      <c r="B66" t="s">
+        <v>152</v>
+      </c>
+      <c r="C66" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" t="str">
+        <f t="shared" si="1"/>
+        <v>#1651: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1651]You Can’t Handle the Extraterrestrial Truth![/url] [Klaus Devestatorie; ed: Verdant Haven]</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>1652</v>
+      </c>
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>155</v>
+      </c>
+      <c r="D67" t="str">
+        <f t="shared" si="1"/>
+        <v>#1652: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1652]Bath and Body Skunkworks[/url] [Luna Amore; ed: Pogaria]</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>1653</v>
+      </c>
+      <c r="B68" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" t="str">
+        <f t="shared" si="1"/>
+        <v>#1653: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1653]Dick's Pics[/url] [All Wild Things; ed: Pogaria]</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>1654</v>
+      </c>
+      <c r="B69" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" t="s">
+        <v>74</v>
+      </c>
+      <c r="D69" t="str">
+        <f t="shared" si="1"/>
+        <v>#1654: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1654]We Bought a Zoo[/url] [West Barack and East Obama; ed: Kaschovia]</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>1655</v>
+      </c>
+      <c r="B70" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" t="s">
+        <v>160</v>
+      </c>
+      <c r="D70" t="str">
+        <f t="shared" si="1"/>
+        <v>#1655: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1655]Surplus to Requirements[/url] [Pax Nerdvana; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>1656</v>
+      </c>
+      <c r="B71" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" t="s">
+        <v>162</v>
+      </c>
+      <c r="D71" t="str">
+        <f t="shared" si="1"/>
+        <v>#1656: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1656]Stealing Afoot[/url] [Keventle; ed: Varanius]</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="169">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -505,6 +505,24 @@
   </si>
   <si>
     <t>[Keventle; ed: Varanius]</t>
+  </si>
+  <si>
+    <t>March Against the Museum</t>
+  </si>
+  <si>
+    <t>[Bisofeyr; ed: Verdant Haven]</t>
+  </si>
+  <si>
+    <t>A Fatherly Fiasco</t>
+  </si>
+  <si>
+    <t>[Torkeland; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>A Dialectal Dilemma</t>
+  </si>
+  <si>
+    <t>[Kors; ed: The Ankhalic Vaspriot]</t>
   </si>
 </sst>
 </file>
@@ -544,7 +562,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -552,9 +570,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -592,7 +610,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -662,7 +680,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -836,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B55" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58:D71"/>
+    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72:D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -1822,7 +1840,7 @@
         <v>151</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D71" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <f t="shared" ref="D65:D74" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
         <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
       </c>
     </row>
@@ -1914,6 +1932,51 @@
       <c r="D71" t="str">
         <f t="shared" si="1"/>
         <v>#1656: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1656]Stealing Afoot[/url] [Keventle; ed: Varanius]</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>1657</v>
+      </c>
+      <c r="B72" t="s">
+        <v>163</v>
+      </c>
+      <c r="C72" t="s">
+        <v>164</v>
+      </c>
+      <c r="D72" t="str">
+        <f t="shared" si="1"/>
+        <v>#1657: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1657]March Against the Museum[/url] [Bisofeyr; ed: Verdant Haven]</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>1658</v>
+      </c>
+      <c r="B73" t="s">
+        <v>165</v>
+      </c>
+      <c r="C73" t="s">
+        <v>166</v>
+      </c>
+      <c r="D73" t="str">
+        <f t="shared" si="1"/>
+        <v>#1658: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1658]A Fatherly Fiasco[/url] [Torkeland; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>1659</v>
+      </c>
+      <c r="B74" t="s">
+        <v>167</v>
+      </c>
+      <c r="C74" t="s">
+        <v>168</v>
+      </c>
+      <c r="D74" t="str">
+        <f t="shared" si="1"/>
+        <v>#1659: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1659]A Dialectal Dilemma[/url] [Kors; ed: The Ankhalic Vaspriot]</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="175">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -523,6 +523,24 @@
   </si>
   <si>
     <t>[Kors; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>The Plight of the Doomscrollers</t>
+  </si>
+  <si>
+    <t>[Western Balkania; ed: Kaschovia]</t>
+  </si>
+  <si>
+    <t>Payback’s a Witch</t>
+  </si>
+  <si>
+    <t>[Kissinger-Monroe; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>Divine Dining</t>
+  </si>
+  <si>
+    <t>[Frieden-und freudenland; ed: Klaus Devestatorie]</t>
   </si>
 </sst>
 </file>
@@ -854,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72:D74"/>
+    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -1840,7 +1858,7 @@
         <v>151</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D74" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <f t="shared" ref="D65:D77" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
         <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
       </c>
     </row>
@@ -1977,6 +1995,51 @@
       <c r="D74" t="str">
         <f t="shared" si="1"/>
         <v>#1659: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1659]A Dialectal Dilemma[/url] [Kors; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>1660</v>
+      </c>
+      <c r="B75" t="s">
+        <v>169</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75" t="str">
+        <f t="shared" si="1"/>
+        <v>#1660: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1660]The Plight of the Doomscrollers[/url] [Western Balkania; ed: Kaschovia]</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>1661</v>
+      </c>
+      <c r="B76" t="s">
+        <v>171</v>
+      </c>
+      <c r="C76" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" t="str">
+        <f t="shared" si="1"/>
+        <v>#1661: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1661]Payback’s a Witch[/url] [Kissinger-Monroe; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>1662</v>
+      </c>
+      <c r="B77" t="s">
+        <v>173</v>
+      </c>
+      <c r="C77" t="s">
+        <v>174</v>
+      </c>
+      <c r="D77" t="str">
+        <f t="shared" si="1"/>
+        <v>#1662: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1662]Divine Dining[/url] [Frieden-und freudenland; ed: Klaus Devestatorie]</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="191">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -541,6 +541,54 @@
   </si>
   <si>
     <t>[Frieden-und freudenland; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>It’s All in the Cards</t>
+  </si>
+  <si>
+    <t>[GeodesicDragon; ed: Baggieland, USS Monitor, The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>Hey Alexis, Are You Sexist?</t>
+  </si>
+  <si>
+    <t>[Clever Homo Sapiens; ed: Candlewhisper Archive]</t>
+  </si>
+  <si>
+    <t>The Relationship Is Complex-Cated</t>
+  </si>
+  <si>
+    <t>[Stevist Guam; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>The Balls in Your Court</t>
+  </si>
+  <si>
+    <t>[Kissinger-Monroe; ed: Varanius]</t>
+  </si>
+  <si>
+    <t>Memoirs of a Pale Blue Dot</t>
+  </si>
+  <si>
+    <t>[The Ankhalic Vaspriot; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>Can’t-abrigian, Ox-no-nian</t>
+  </si>
+  <si>
+    <t>[Helaw; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>They’re All the Same to Me</t>
+  </si>
+  <si>
+    <t>[Kilogramonia; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>Bad Religion</t>
+  </si>
+  <si>
+    <t>[Umbratellus; ed:  Klaus Devestatorie]</t>
   </si>
 </sst>
 </file>
@@ -872,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C57" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75:D77"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D78" sqref="D78:D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -1858,7 +1906,7 @@
         <v>151</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D77" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <f t="shared" ref="D65:D85" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
         <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
       </c>
     </row>
@@ -2040,6 +2088,126 @@
       <c r="D77" t="str">
         <f t="shared" si="1"/>
         <v>#1662: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1662]Divine Dining[/url] [Frieden-und freudenland; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>1663</v>
+      </c>
+      <c r="B78" t="s">
+        <v>175</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78" t="str">
+        <f t="shared" si="1"/>
+        <v>#1663: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1663]It’s All in the Cards[/url] [GeodesicDragon; ed: Baggieland, USS Monitor, The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>1664</v>
+      </c>
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79" t="s">
+        <v>178</v>
+      </c>
+      <c r="D79" t="str">
+        <f t="shared" si="1"/>
+        <v>#1664: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1664]Hey Alexis, Are You Sexist?[/url] [Clever Homo Sapiens; ed: Candlewhisper Archive]</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>1665</v>
+      </c>
+      <c r="B80" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" t="s">
+        <v>180</v>
+      </c>
+      <c r="D80" t="str">
+        <f t="shared" si="1"/>
+        <v>#1665: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1665]The Relationship Is Complex-Cated[/url] [Stevist Guam; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>1666</v>
+      </c>
+      <c r="B81" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="D81" t="str">
+        <f t="shared" si="1"/>
+        <v>#1666: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1666]The Balls in Your Court[/url] [Kissinger-Monroe; ed: Varanius]</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>1667</v>
+      </c>
+      <c r="B82" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82" t="str">
+        <f t="shared" si="1"/>
+        <v>#1667: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1667]Memoirs of a Pale Blue Dot[/url] [The Ankhalic Vaspriot; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>1668</v>
+      </c>
+      <c r="B83" t="s">
+        <v>185</v>
+      </c>
+      <c r="C83" t="s">
+        <v>186</v>
+      </c>
+      <c r="D83" t="str">
+        <f t="shared" si="1"/>
+        <v>#1668: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1668]Can’t-abrigian, Ox-no-nian[/url] [Helaw; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>1669</v>
+      </c>
+      <c r="B84" t="s">
+        <v>187</v>
+      </c>
+      <c r="C84" t="s">
+        <v>188</v>
+      </c>
+      <c r="D84" t="str">
+        <f t="shared" si="1"/>
+        <v>#1669: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1669]They’re All the Same to Me[/url] [Kilogramonia; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>1670</v>
+      </c>
+      <c r="B85" t="s">
+        <v>189</v>
+      </c>
+      <c r="C85" t="s">
+        <v>190</v>
+      </c>
+      <c r="D85" t="str">
+        <f t="shared" si="1"/>
+        <v>#1670: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1670]Bad Religion[/url] [Umbratellus; ed:  Klaus Devestatorie]</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="201">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -589,6 +589,36 @@
   </si>
   <si>
     <t>[Umbratellus; ed:  Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>No Good Deed?</t>
+  </si>
+  <si>
+    <t>Tourists Flood Murder Victims' House</t>
+  </si>
+  <si>
+    <t>Betting Against the Catastrophe</t>
+  </si>
+  <si>
+    <t>Reining the Dragon</t>
+  </si>
+  <si>
+    <t>Penny Pinchers</t>
+  </si>
+  <si>
+    <t>[Paffnia; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>[Poopoopeepeestan; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[Klaus Devestatorie; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>[Jiangbei; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[The Ankhalic Vaspriot; ed: The Ankhalic Vaspriot]</t>
   </si>
 </sst>
 </file>
@@ -628,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -636,9 +666,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Thema">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -676,7 +706,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -746,7 +776,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -920,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="D78" sqref="D78:D85"/>
+    <sheetView tabSelected="1" topLeftCell="D75" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86:D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -1906,7 +1936,7 @@
         <v>151</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D85" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <f t="shared" ref="D65:D90" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
         <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
       </c>
     </row>
@@ -2208,6 +2238,81 @@
       <c r="D85" t="str">
         <f t="shared" si="1"/>
         <v>#1670: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1670]Bad Religion[/url] [Umbratellus; ed:  Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>1671</v>
+      </c>
+      <c r="B86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" t="s">
+        <v>196</v>
+      </c>
+      <c r="D86" t="str">
+        <f t="shared" si="1"/>
+        <v>#1671: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1671]No Good Deed?[/url] [Paffnia; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>1672</v>
+      </c>
+      <c r="B87" t="s">
+        <v>192</v>
+      </c>
+      <c r="C87" t="s">
+        <v>197</v>
+      </c>
+      <c r="D87" t="str">
+        <f t="shared" si="1"/>
+        <v>#1672: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1672]Tourists Flood Murder Victims' House[/url] [Poopoopeepeestan; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>1673</v>
+      </c>
+      <c r="B88" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="str">
+        <f t="shared" si="1"/>
+        <v>#1673: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1673]Betting Against the Catastrophe[/url] [Klaus Devestatorie; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>1674</v>
+      </c>
+      <c r="B89" t="s">
+        <v>194</v>
+      </c>
+      <c r="C89" t="s">
+        <v>199</v>
+      </c>
+      <c r="D89" t="str">
+        <f t="shared" si="1"/>
+        <v>#1674: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1674]Reining the Dragon[/url] [Jiangbei; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>1675</v>
+      </c>
+      <c r="B90" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" t="s">
+        <v>200</v>
+      </c>
+      <c r="D90" t="str">
+        <f t="shared" si="1"/>
+        <v>#1675: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1675]Penny Pinchers[/url] [The Ankhalic Vaspriot; ed: The Ankhalic Vaspriot]</v>
       </c>
     </row>
   </sheetData>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="232">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -619,6 +619,99 @@
   </si>
   <si>
     <t>[The Ankhalic Vaspriot; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>All Animals Are Equal, But...</t>
+  </si>
+  <si>
+    <t>Common Cents</t>
+  </si>
+  <si>
+    <t>Praying for Silence</t>
+  </si>
+  <si>
+    <t>Meals on Foot</t>
+  </si>
+  <si>
+    <t>A Slip of the Tongue</t>
+  </si>
+  <si>
+    <t>The Little Train that Could Give You Cancer</t>
+  </si>
+  <si>
+    <t>In the Year of Our Lord</t>
+  </si>
+  <si>
+    <t>Naps in Judgement</t>
+  </si>
+  <si>
+    <t>Children’s Cartoon Chafes CEO</t>
+  </si>
+  <si>
+    <t>Carnivorous Kids</t>
+  </si>
+  <si>
+    <t>A Slippery Slope</t>
+  </si>
+  <si>
+    <t>The End of the Rainbow</t>
+  </si>
+  <si>
+    <t>Government Bureaucracy More Like Aristocracy</t>
+  </si>
+  <si>
+    <t>The Winter of Our Discontent</t>
+  </si>
+  <si>
+    <t>The Fault in Our Skyline</t>
+  </si>
+  <si>
+    <t>The Children Yearn for the Mines</t>
+  </si>
+  <si>
+    <t>[The Esoteric Order of Renea; ed: The Marsupial Illuminati]</t>
+  </si>
+  <si>
+    <t>[General TN; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[Angolistas; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>[Raionitu; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[South Armys Nyeth Stuarika, Southland; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[Valentine Z; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[Haymarket Riot; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[Neo-Serranis; ed: The Marsupial Illuminati]</t>
+  </si>
+  <si>
+    <t>[Nardin; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>[Skaladoria; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Bisofeyr; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[The Serdey Islands; ed: Terrabod &amp; Raionitu]</t>
+  </si>
+  <si>
+    <t>[Ransium, Helaw; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[Millenhaal; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>[Granola; ed: Bisofeyr]</t>
   </si>
 </sst>
 </file>
@@ -950,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D75" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86:D90"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="D100" sqref="A98:D100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -1936,7 +2029,7 @@
         <v>151</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D90" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <f t="shared" ref="D65:D106" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
         <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
       </c>
     </row>
@@ -2313,6 +2406,246 @@
       <c r="D90" t="str">
         <f t="shared" si="1"/>
         <v>#1675: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1675]Penny Pinchers[/url] [The Ankhalic Vaspriot; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>1676</v>
+      </c>
+      <c r="B91" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" t="s">
+        <v>219</v>
+      </c>
+      <c r="D91" t="str">
+        <f t="shared" si="1"/>
+        <v>#1676: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1676]All Animals Are Equal, But...[/url] [Angolistas; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>1677</v>
+      </c>
+      <c r="B92" t="s">
+        <v>202</v>
+      </c>
+      <c r="C92" t="s">
+        <v>220</v>
+      </c>
+      <c r="D92" t="str">
+        <f t="shared" si="1"/>
+        <v>#1677: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1677]Common Cents[/url] [Raionitu; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>1678</v>
+      </c>
+      <c r="B93" t="s">
+        <v>203</v>
+      </c>
+      <c r="C93" t="s">
+        <v>221</v>
+      </c>
+      <c r="D93" t="str">
+        <f t="shared" si="1"/>
+        <v>#1678: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1678]Praying for Silence[/url] [South Armys Nyeth Stuarika, Southland; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>1679</v>
+      </c>
+      <c r="B94" t="s">
+        <v>204</v>
+      </c>
+      <c r="C94" t="s">
+        <v>222</v>
+      </c>
+      <c r="D94" t="str">
+        <f t="shared" si="1"/>
+        <v>#1679: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1679]Meals on Foot[/url] [Valentine Z; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>1680</v>
+      </c>
+      <c r="B95" t="s">
+        <v>205</v>
+      </c>
+      <c r="C95" t="s">
+        <v>217</v>
+      </c>
+      <c r="D95" t="str">
+        <f t="shared" si="1"/>
+        <v>#1680: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1680]A Slip of the Tongue[/url] [The Esoteric Order of Renea; ed: The Marsupial Illuminati]</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>1681</v>
+      </c>
+      <c r="B96" t="s">
+        <v>216</v>
+      </c>
+      <c r="C96" t="s">
+        <v>218</v>
+      </c>
+      <c r="D96" t="str">
+        <f t="shared" si="1"/>
+        <v>#1681: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1681]The Children Yearn for the Mines[/url] [General TN; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>1682</v>
+      </c>
+      <c r="B97" t="s">
+        <v>206</v>
+      </c>
+      <c r="C97" t="s">
+        <v>223</v>
+      </c>
+      <c r="D97" t="str">
+        <f t="shared" si="1"/>
+        <v>#1682: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1682]The Little Train that Could Give You Cancer[/url] [Haymarket Riot; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1683</v>
+      </c>
+      <c r="B98" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>224</v>
+      </c>
+      <c r="D98" t="str">
+        <f t="shared" si="1"/>
+        <v>#1683: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1683]In the Year of Our Lord[/url] [Neo-Serranis; ed: The Marsupial Illuminati]</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>1684</v>
+      </c>
+      <c r="B99" t="s">
+        <v>208</v>
+      </c>
+      <c r="C99" t="s">
+        <v>225</v>
+      </c>
+      <c r="D99" t="str">
+        <f t="shared" si="1"/>
+        <v>#1684: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1684]Naps in Judgement[/url] [Nardin; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>1685</v>
+      </c>
+      <c r="B100" t="s">
+        <v>209</v>
+      </c>
+      <c r="C100" t="s">
+        <v>226</v>
+      </c>
+      <c r="D100" t="str">
+        <f t="shared" si="1"/>
+        <v>#1685: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1685]Children’s Cartoon Chafes CEO[/url] [Skaladoria; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>1686</v>
+      </c>
+      <c r="B101" t="s">
+        <v>210</v>
+      </c>
+      <c r="C101" t="s">
+        <v>227</v>
+      </c>
+      <c r="D101" t="str">
+        <f t="shared" si="1"/>
+        <v>#1686: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1686]Carnivorous Kids[/url] [Bisofeyr; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>1687</v>
+      </c>
+      <c r="B102" t="s">
+        <v>211</v>
+      </c>
+      <c r="C102" t="s">
+        <v>228</v>
+      </c>
+      <c r="D102" t="str">
+        <f t="shared" si="1"/>
+        <v>#1687: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1687]A Slippery Slope[/url] [The Serdey Islands; ed: Terrabod &amp; Raionitu]</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>1688</v>
+      </c>
+      <c r="B103" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103" t="str">
+        <f t="shared" si="1"/>
+        <v>#1688: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1688]The End of the Rainbow[/url] [The Ankhalic Vaspriot; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>1689</v>
+      </c>
+      <c r="B104" t="s">
+        <v>213</v>
+      </c>
+      <c r="C104" t="s">
+        <v>229</v>
+      </c>
+      <c r="D104" t="str">
+        <f t="shared" si="1"/>
+        <v>#1689: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1689]Government Bureaucracy More Like Aristocracy[/url] [Ransium, Helaw; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>1690</v>
+      </c>
+      <c r="B105" t="s">
+        <v>214</v>
+      </c>
+      <c r="C105" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" t="str">
+        <f t="shared" si="1"/>
+        <v>#1690: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1690]The Winter of Our Discontent[/url] [Millenhaal; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>1691</v>
+      </c>
+      <c r="B106" t="s">
+        <v>215</v>
+      </c>
+      <c r="C106" t="s">
+        <v>231</v>
+      </c>
+      <c r="D106" t="str">
+        <f t="shared" si="1"/>
+        <v>#1691: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1691]The Fault in Our Skyline[/url] [Granola; ed: Bisofeyr]</v>
       </c>
     </row>
   </sheetData>
@@ -2472,12 +2805,146 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="72.87890625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>214</v>
+      </c>
+      <c r="B15" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="267">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -712,6 +712,111 @@
   </si>
   <si>
     <t>[Granola; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>Hit Me With Your Best Shot</t>
+  </si>
+  <si>
+    <t>[Dabarastan, Jim the Baptist; ed: Thorn1000]</t>
+  </si>
+  <si>
+    <t>My Home Is My Castle</t>
+  </si>
+  <si>
+    <t>[Magnum Aurumea; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>Aiding and Abetting</t>
+  </si>
+  <si>
+    <t>[Krusavich; ed: The Marsupial Illuminati]</t>
+  </si>
+  <si>
+    <t>Calling All @@DEMONYM_NOUN_PLURAL@@</t>
+  </si>
+  <si>
+    <t>[USS Monitor; ed: Terrabod &amp; Southland]</t>
+  </si>
+  <si>
+    <t>Everyone Loves Shipping</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>Escape From Althaniq</t>
+  </si>
+  <si>
+    <t>[Frieden-und Freudenland; ed: Kractero]</t>
+  </si>
+  <si>
+    <t>That Don't Impress Me Much</t>
+  </si>
+  <si>
+    <t>[Baggieland; ed: Baggieland &amp; Zwangzug]</t>
+  </si>
+  <si>
+    <t>Achute Binjury</t>
+  </si>
+  <si>
+    <t>[GeodesicDragon; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>My Heart Will Go On</t>
+  </si>
+  <si>
+    <t>All That Glitters Amidst Night Skies</t>
+  </si>
+  <si>
+    <t>[Krilgox; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>Congratulations, You Have Crabs!</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>Hitchhikers Guide @@NAME@@</t>
+  </si>
+  <si>
+    <t>[Jutsa; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>Rainbow Disconnections</t>
+  </si>
+  <si>
+    <t>[Ostrovskiy; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>Taken Out Back</t>
+  </si>
+  <si>
+    <t>[Kractero; ed: Luna Amore]</t>
+  </si>
+  <si>
+    <t>Coal, Coal Never Changes</t>
+  </si>
+  <si>
+    <t>[Ancarchyland; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>Crime and Re-Punishment</t>
+  </si>
+  <si>
+    <t>[Baloo Kingdom; Jiangbei]</t>
+  </si>
+  <si>
+    <t>The Sun Is a Deadly Lazer</t>
+  </si>
+  <si>
+    <t>[Westinor; ed: Thorn1000]</t>
+  </si>
+  <si>
+    <t>A Drive to Drive</t>
+  </si>
+  <si>
+    <t>[Missouri and its Territories; ed: Ostrovskiy]</t>
   </si>
 </sst>
 </file>
@@ -751,7 +856,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -759,9 +864,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Larissa">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -799,7 +904,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Larissa">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -869,7 +974,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Larissa">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1043,13 +1148,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D106"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="D100" sqref="A98:D100"/>
+    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107:A124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="32.76171875" customWidth="1"/>
@@ -2029,7 +2134,7 @@
         <v>151</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D106" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <f t="shared" ref="D65:D124" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
         <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
       </c>
     </row>
@@ -2646,6 +2751,276 @@
       <c r="D106" t="str">
         <f t="shared" si="1"/>
         <v>#1691: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1691]The Fault in Our Skyline[/url] [Granola; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>1692</v>
+      </c>
+      <c r="B107" t="s">
+        <v>232</v>
+      </c>
+      <c r="C107" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" t="str">
+        <f t="shared" si="1"/>
+        <v>#1692: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1692]Hit Me With Your Best Shot[/url] [Dabarastan, Jim the Baptist; ed: Thorn1000]</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1693</v>
+      </c>
+      <c r="B108" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" t="str">
+        <f t="shared" si="1"/>
+        <v>#1693: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1693]My Home Is My Castle[/url] [Magnum Aurumea; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1694</v>
+      </c>
+      <c r="B109" t="s">
+        <v>236</v>
+      </c>
+      <c r="C109" t="s">
+        <v>237</v>
+      </c>
+      <c r="D109" t="str">
+        <f t="shared" si="1"/>
+        <v>#1694: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1694]Aiding and Abetting[/url] [Krusavich; ed: The Marsupial Illuminati]</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1695</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>239</v>
+      </c>
+      <c r="D110" t="str">
+        <f t="shared" si="1"/>
+        <v>#1695: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1695]Calling All @@DEMONYM_NOUN_PLURAL@@[/url] [USS Monitor; ed: Terrabod &amp; Southland]</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>1696</v>
+      </c>
+      <c r="B111" t="s">
+        <v>240</v>
+      </c>
+      <c r="C111" t="s">
+        <v>241</v>
+      </c>
+      <c r="D111" t="str">
+        <f t="shared" si="1"/>
+        <v>#1696: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1696]Everyone Loves Shipping[/url] [Candlewhisper Archive; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>1697</v>
+      </c>
+      <c r="B112" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" t="s">
+        <v>243</v>
+      </c>
+      <c r="D112" t="str">
+        <f t="shared" si="1"/>
+        <v>#1697: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1697]Escape From Althaniq[/url] [Frieden-und Freudenland; ed: Kractero]</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>1698</v>
+      </c>
+      <c r="B113" t="s">
+        <v>244</v>
+      </c>
+      <c r="C113" t="s">
+        <v>245</v>
+      </c>
+      <c r="D113" t="str">
+        <f t="shared" si="1"/>
+        <v>#1698: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1698]That Don't Impress Me Much[/url] [Baggieland; ed: Baggieland &amp; Zwangzug]</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1699</v>
+      </c>
+      <c r="B114" t="s">
+        <v>246</v>
+      </c>
+      <c r="C114" t="s">
+        <v>247</v>
+      </c>
+      <c r="D114" t="str">
+        <f t="shared" si="1"/>
+        <v>#1699: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1699]Achute Binjury[/url] [GeodesicDragon; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1700</v>
+      </c>
+      <c r="B115" t="s">
+        <v>248</v>
+      </c>
+      <c r="C115" t="s">
+        <v>220</v>
+      </c>
+      <c r="D115" t="str">
+        <f t="shared" si="1"/>
+        <v>#1700: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1700]My Heart Will Go On[/url] [Raionitu; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>1701</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D116" t="str">
+        <f t="shared" si="1"/>
+        <v>#1701: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1701]All That Glitters Amidst Night Skies[/url] [Krilgox; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>1702</v>
+      </c>
+      <c r="B117" t="s">
+        <v>251</v>
+      </c>
+      <c r="C117" t="s">
+        <v>252</v>
+      </c>
+      <c r="D117" t="str">
+        <f t="shared" si="1"/>
+        <v>#1702: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1702]Congratulations, You Have Crabs![/url] [Candlewhisper Archive; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>1703</v>
+      </c>
+      <c r="B118" t="s">
+        <v>253</v>
+      </c>
+      <c r="C118" t="s">
+        <v>254</v>
+      </c>
+      <c r="D118" t="str">
+        <f t="shared" si="1"/>
+        <v>#1703: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1703]Hitchhikers Guide @@NAME@@[/url] [Jutsa; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>1704</v>
+      </c>
+      <c r="B119" t="s">
+        <v>255</v>
+      </c>
+      <c r="C119" t="s">
+        <v>256</v>
+      </c>
+      <c r="D119" t="str">
+        <f t="shared" si="1"/>
+        <v>#1704: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1704]Rainbow Disconnections[/url] [Ostrovskiy; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>1705</v>
+      </c>
+      <c r="B120" t="s">
+        <v>257</v>
+      </c>
+      <c r="C120" t="s">
+        <v>258</v>
+      </c>
+      <c r="D120" t="str">
+        <f t="shared" si="1"/>
+        <v>#1705: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1705]Taken Out Back[/url] [Kractero; ed: Luna Amore]</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>1706</v>
+      </c>
+      <c r="B121" t="s">
+        <v>259</v>
+      </c>
+      <c r="C121" t="s">
+        <v>260</v>
+      </c>
+      <c r="D121" t="str">
+        <f t="shared" si="1"/>
+        <v>#1706: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1706]Coal, Coal Never Changes[/url] [Ancarchyland; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>1707</v>
+      </c>
+      <c r="B122" t="s">
+        <v>261</v>
+      </c>
+      <c r="C122" t="s">
+        <v>262</v>
+      </c>
+      <c r="D122" t="str">
+        <f t="shared" si="1"/>
+        <v>#1707: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1707]Crime and Re-Punishment[/url] [Baloo Kingdom; Jiangbei]</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>1708</v>
+      </c>
+      <c r="B123" t="s">
+        <v>263</v>
+      </c>
+      <c r="C123" t="s">
+        <v>264</v>
+      </c>
+      <c r="D123" t="str">
+        <f t="shared" si="1"/>
+        <v>#1708: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1708]The Sun Is a Deadly Lazer[/url] [Westinor; ed: Thorn1000]</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>1709</v>
+      </c>
+      <c r="B124" t="s">
+        <v>265</v>
+      </c>
+      <c r="C124" t="s">
+        <v>266</v>
+      </c>
+      <c r="D124" t="str">
+        <f t="shared" si="1"/>
+        <v>#1709: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1709]A Drive to Drive[/url] [Missouri and its Territories; ed: Ostrovskiy]</v>
       </c>
     </row>
   </sheetData>
@@ -2665,7 +3040,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="2" width="95.703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2811,7 +3186,7 @@
       <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="72.87890625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="323">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -817,6 +817,174 @@
   </si>
   <si>
     <t>[Missouri and its Territories; ed: Ostrovskiy]</t>
+  </si>
+  <si>
+    <t>Fancy Some Sparkling Water?</t>
+  </si>
+  <si>
+    <t>[Bendicion; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[Ransium; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>Jerk Rice Jerkoff</t>
+  </si>
+  <si>
+    <t>[Enzonar; ed: Kractero]</t>
+  </si>
+  <si>
+    <t>@@DEMONYM_PLURAL@@ Taken for a Ride by Car Ban [Ransium; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[Republik Hintonia; ed: Baggieland]</t>
+  </si>
+  <si>
+    <t>[Ostrovskiy; ed: The Marsupial Illuminati]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sedgistan; ed: Sedgistan] </t>
+  </si>
+  <si>
+    <t>@@NAME@@, Bastion of Freedom [Raionitu; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>CEOs Shilled the Radio Star</t>
+  </si>
+  <si>
+    <t>This Land Was Drained for You and Me</t>
+  </si>
+  <si>
+    <t>Can't With Ants</t>
+  </si>
+  <si>
+    <t>Not-So High Times in @@NAME@@</t>
+  </si>
+  <si>
+    <t>Let Freedom Ring</t>
+  </si>
+  <si>
+    <t>Ministers of Make Believe</t>
+  </si>
+  <si>
+    <t>Seeing With the Heart</t>
+  </si>
+  <si>
+    <t>Have You Ever Seen the Rain?</t>
+  </si>
+  <si>
+    <t>Urban Explorers Cross the Line</t>
+  </si>
+  <si>
+    <t>Criminals on the (Pay)Roll?</t>
+  </si>
+  <si>
+    <t>Itsy Bitsy Teenie Weenie Protests About the Maxkini</t>
+  </si>
+  <si>
+    <t>Wrath of the Lichen</t>
+  </si>
+  <si>
+    <t>Overcensortivity</t>
+  </si>
+  <si>
+    <t>Retired Rebels Request Restitution</t>
+  </si>
+  <si>
+    <t>Cloudy With a Chance of Fecal Matter</t>
+  </si>
+  <si>
+    <t>Too Big to Rig</t>
+  </si>
+  <si>
+    <t>Next-Genocide?</t>
+  </si>
+  <si>
+    <t>Leaf Those Trees Alone!</t>
+  </si>
+  <si>
+    <t>Famous Rapper Going South?</t>
+  </si>
+  <si>
+    <t>Anthems of Dispute</t>
+  </si>
+  <si>
+    <t>Nothing Gold Can Stay</t>
+  </si>
+  <si>
+    <t>Malpractice Makes Perfect</t>
+  </si>
+  <si>
+    <t>War Never Changes</t>
+  </si>
+  <si>
+    <t>Cut the Cheese</t>
+  </si>
+  <si>
+    <t>[Millenhaal; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>[Cretox State; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>[Dangine, Authoritaria-imperia; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>[Southland; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[The Free Joy State; ed: Ostrovskiy]</t>
+  </si>
+  <si>
+    <t>[Nergtul; ed: Nardin]</t>
+  </si>
+  <si>
+    <t>[Thorn1000; ed: Westinor &amp; The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[Voltavia; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[The Realizer; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[The Anti-Social Socialists; ed: Zwangzug, Bisofeyr]</t>
+  </si>
+  <si>
+    <t>[SinCorp; ed: Klaus Devestatorie]</t>
+  </si>
+  <si>
+    <t>[Crisis; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[The 19th Century; ed: Jiangbei]</t>
+  </si>
+  <si>
+    <t>[Skibidigoonistan; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>[Urcea; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[Sincorp; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Kaschovia; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>[Current British Colony; ed: Kractero]</t>
+  </si>
+  <si>
+    <t>[Socialist Ancomistan; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[Millenhaal; ed: Ostrovskiy]</t>
+  </si>
+  <si>
+    <t>[West Barack and East Obama; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[Bisofeyr; ed: Bisofeyr]</t>
   </si>
 </sst>
 </file>
@@ -856,7 +1024,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -864,9 +1032,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Thema">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -904,7 +1072,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -974,7 +1142,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1148,13 +1316,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107:A124"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125:D155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="9.8203125" customWidth="1"/>
     <col min="2" max="2" width="32.76171875" customWidth="1"/>
@@ -2134,7 +2302,7 @@
         <v>151</v>
       </c>
       <c r="D65" t="str">
-        <f t="shared" ref="D65:D124" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
+        <f t="shared" ref="D65:D128" si="1">"#"&amp;A65&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A65&amp;"]"&amp;B65&amp;"[/url] "&amp;C65</f>
         <v>#1650: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1650]Bearer of Bad Pews[/url] [New Ropakstadt; ed: Klaus Devestatorie]</v>
       </c>
     </row>
@@ -3021,6 +3189,471 @@
       <c r="D124" t="str">
         <f t="shared" si="1"/>
         <v>#1709: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1709]A Drive to Drive[/url] [Missouri and its Territories; ed: Ostrovskiy]</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>1710</v>
+      </c>
+      <c r="B125" t="s">
+        <v>267</v>
+      </c>
+      <c r="C125" t="s">
+        <v>268</v>
+      </c>
+      <c r="D125" t="str">
+        <f t="shared" si="1"/>
+        <v>#1710: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1710]Fancy Some Sparkling Water?[/url] [Bendicion; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>1711</v>
+      </c>
+      <c r="B126" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" t="s">
+        <v>269</v>
+      </c>
+      <c r="D126" t="str">
+        <f t="shared" si="1"/>
+        <v>#1711: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1711]@@DEMONYM_PLURAL@@ Taken for a Ride by Car Ban [Ransium; ed: Raionitu][/url] [Ransium; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>1712</v>
+      </c>
+      <c r="B127" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" t="s">
+        <v>271</v>
+      </c>
+      <c r="D127" t="str">
+        <f t="shared" si="1"/>
+        <v>#1712: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1712]Jerk Rice Jerkoff[/url] [Enzonar; ed: Kractero]</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>1713</v>
+      </c>
+      <c r="B128" t="s">
+        <v>277</v>
+      </c>
+      <c r="C128" t="s">
+        <v>301</v>
+      </c>
+      <c r="D128" t="str">
+        <f t="shared" si="1"/>
+        <v>#1713: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1713]CEOs Shilled the Radio Star[/url] [Millenhaal; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>1714</v>
+      </c>
+      <c r="B129" t="s">
+        <v>273</v>
+      </c>
+      <c r="C129" t="s">
+        <v>273</v>
+      </c>
+      <c r="D129" t="str">
+        <f t="shared" ref="D129:D155" si="2">"#"&amp;A129&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A129&amp;"]"&amp;B129&amp;"[/url] "&amp;C129</f>
+        <v>#1714: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1714][Republik Hintonia; ed: Baggieland][/url] [Republik Hintonia; ed: Baggieland]</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>1715</v>
+      </c>
+      <c r="B130" t="s">
+        <v>274</v>
+      </c>
+      <c r="C130" t="s">
+        <v>274</v>
+      </c>
+      <c r="D130" t="str">
+        <f t="shared" si="2"/>
+        <v>#1715: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1715][Ostrovskiy; ed: The Marsupial Illuminati][/url] [Ostrovskiy; ed: The Marsupial Illuminati]</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1716</v>
+      </c>
+      <c r="B131" t="s">
+        <v>275</v>
+      </c>
+      <c r="C131" t="s">
+        <v>275</v>
+      </c>
+      <c r="D131" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">#1716: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1716][Sedgistan; ed: Sedgistan] [/url] [Sedgistan; ed: Sedgistan] </v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>1717</v>
+      </c>
+      <c r="B132" t="s">
+        <v>278</v>
+      </c>
+      <c r="C132" t="s">
+        <v>302</v>
+      </c>
+      <c r="D132" t="str">
+        <f t="shared" si="2"/>
+        <v>#1717: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1717]This Land Was Drained for You and Me[/url] [Cretox State; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>1718</v>
+      </c>
+      <c r="B133" t="s">
+        <v>279</v>
+      </c>
+      <c r="C133" t="s">
+        <v>303</v>
+      </c>
+      <c r="D133" t="str">
+        <f t="shared" si="2"/>
+        <v>#1718: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1718]Can't With Ants[/url] [Dangine, Authoritaria-imperia; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>1719</v>
+      </c>
+      <c r="B134" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" t="s">
+        <v>304</v>
+      </c>
+      <c r="D134" t="str">
+        <f t="shared" si="2"/>
+        <v>#1719: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1719]Not-So High Times in @@NAME@@[/url] [Southland; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>1720</v>
+      </c>
+      <c r="B135" t="s">
+        <v>281</v>
+      </c>
+      <c r="C135" t="s">
+        <v>305</v>
+      </c>
+      <c r="D135" t="str">
+        <f t="shared" si="2"/>
+        <v>#1720: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1720]Let Freedom Ring[/url] [The Free Joy State; ed: Ostrovskiy]</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
+        <v>1721</v>
+      </c>
+      <c r="B136" t="s">
+        <v>282</v>
+      </c>
+      <c r="C136" t="s">
+        <v>306</v>
+      </c>
+      <c r="D136" t="str">
+        <f t="shared" si="2"/>
+        <v>#1721: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1721]Ministers of Make Believe[/url] [Nergtul; ed: Nardin]</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>1722</v>
+      </c>
+      <c r="B137" t="s">
+        <v>283</v>
+      </c>
+      <c r="C137" t="s">
+        <v>200</v>
+      </c>
+      <c r="D137" t="str">
+        <f t="shared" si="2"/>
+        <v>#1722: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1722]Seeing With the Heart[/url] [The Ankhalic Vaspriot; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>1723</v>
+      </c>
+      <c r="B138" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" t="s">
+        <v>307</v>
+      </c>
+      <c r="D138" t="str">
+        <f t="shared" si="2"/>
+        <v>#1723: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1723]Have You Ever Seen the Rain?[/url] [Thorn1000; ed: Westinor &amp; The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139">
+        <v>1724</v>
+      </c>
+      <c r="B139" t="s">
+        <v>285</v>
+      </c>
+      <c r="C139" t="s">
+        <v>308</v>
+      </c>
+      <c r="D139" t="str">
+        <f t="shared" si="2"/>
+        <v>#1724: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1724]Urban Explorers Cross the Line[/url] [Voltavia; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>1725</v>
+      </c>
+      <c r="B140" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" t="s">
+        <v>309</v>
+      </c>
+      <c r="D140" t="str">
+        <f t="shared" si="2"/>
+        <v>#1725: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1725]Criminals on the (Pay)Roll?[/url] [The Realizer; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>1726</v>
+      </c>
+      <c r="B141" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" t="s">
+        <v>310</v>
+      </c>
+      <c r="D141" t="str">
+        <f t="shared" si="2"/>
+        <v>#1726: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1726]Itsy Bitsy Teenie Weenie Protests About the Maxkini[/url] [The Anti-Social Socialists; ed: Zwangzug, Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>1727</v>
+      </c>
+      <c r="B142" t="s">
+        <v>288</v>
+      </c>
+      <c r="C142" t="s">
+        <v>311</v>
+      </c>
+      <c r="D142" t="str">
+        <f t="shared" si="2"/>
+        <v>#1727: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1727]Wrath of the Lichen[/url] [SinCorp; ed: Klaus Devestatorie]</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>1728</v>
+      </c>
+      <c r="B143" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" t="s">
+        <v>312</v>
+      </c>
+      <c r="D143" t="str">
+        <f t="shared" si="2"/>
+        <v>#1728: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1728]Overcensortivity[/url] [Crisis; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>1729</v>
+      </c>
+      <c r="B144" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" t="s">
+        <v>313</v>
+      </c>
+      <c r="D144" t="str">
+        <f t="shared" si="2"/>
+        <v>#1729: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1729]Retired Rebels Request Restitution[/url] [The 19th Century; ed: Jiangbei]</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>1730</v>
+      </c>
+      <c r="B145" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" t="s">
+        <v>314</v>
+      </c>
+      <c r="D145" t="str">
+        <f t="shared" si="2"/>
+        <v>#1730: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1730]Cloudy With a Chance of Fecal Matter[/url] [Skibidigoonistan; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>1731</v>
+      </c>
+      <c r="B146" t="s">
+        <v>276</v>
+      </c>
+      <c r="C146" t="s">
+        <v>220</v>
+      </c>
+      <c r="D146" t="str">
+        <f t="shared" si="2"/>
+        <v>#1731: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1731]@@NAME@@, Bastion of Freedom [Raionitu; ed: Raionitu][/url] [Raionitu; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>1732</v>
+      </c>
+      <c r="B147" t="s">
+        <v>292</v>
+      </c>
+      <c r="C147" t="s">
+        <v>315</v>
+      </c>
+      <c r="D147" t="str">
+        <f t="shared" si="2"/>
+        <v>#1732: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1732]Too Big to Rig[/url] [Urcea; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
+        <v>1733</v>
+      </c>
+      <c r="B148" t="s">
+        <v>293</v>
+      </c>
+      <c r="C148" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148" t="str">
+        <f t="shared" si="2"/>
+        <v>#1733: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1733]Next-Genocide?[/url] [Sincorp; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149">
+        <v>1734</v>
+      </c>
+      <c r="B149" t="s">
+        <v>294</v>
+      </c>
+      <c r="C149" t="s">
+        <v>317</v>
+      </c>
+      <c r="D149" t="str">
+        <f t="shared" si="2"/>
+        <v>#1734: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1734]Leaf Those Trees Alone![/url] [Kaschovia; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150">
+        <v>1735</v>
+      </c>
+      <c r="B150" t="s">
+        <v>295</v>
+      </c>
+      <c r="C150" t="s">
+        <v>318</v>
+      </c>
+      <c r="D150" t="str">
+        <f t="shared" si="2"/>
+        <v>#1735: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1735]Famous Rapper Going South?[/url] [Current British Colony; ed: Kractero]</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151">
+        <v>1736</v>
+      </c>
+      <c r="B151" t="s">
+        <v>296</v>
+      </c>
+      <c r="C151" t="s">
+        <v>319</v>
+      </c>
+      <c r="D151" t="str">
+        <f t="shared" si="2"/>
+        <v>#1736: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1736]Anthems of Dispute[/url] [Socialist Ancomistan; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152">
+        <v>1737</v>
+      </c>
+      <c r="B152" t="s">
+        <v>297</v>
+      </c>
+      <c r="C152" t="s">
+        <v>200</v>
+      </c>
+      <c r="D152" t="str">
+        <f t="shared" si="2"/>
+        <v>#1737: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1737]Nothing Gold Can Stay[/url] [The Ankhalic Vaspriot; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153">
+        <v>1738</v>
+      </c>
+      <c r="B153" t="s">
+        <v>298</v>
+      </c>
+      <c r="C153" t="s">
+        <v>320</v>
+      </c>
+      <c r="D153" t="str">
+        <f t="shared" si="2"/>
+        <v>#1738: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1738]Malpractice Makes Perfect[/url] [Millenhaal; ed: Ostrovskiy]</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154">
+        <v>1739</v>
+      </c>
+      <c r="B154" t="s">
+        <v>299</v>
+      </c>
+      <c r="C154" t="s">
+        <v>321</v>
+      </c>
+      <c r="D154" t="str">
+        <f t="shared" si="2"/>
+        <v>#1739: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1739]War Never Changes[/url] [West Barack and East Obama; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155">
+        <v>1740</v>
+      </c>
+      <c r="B155" t="s">
+        <v>300</v>
+      </c>
+      <c r="C155" t="s">
+        <v>322</v>
+      </c>
+      <c r="D155" t="str">
+        <f t="shared" si="2"/>
+        <v>#1740: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1740]Cut the Cheese[/url] [Bisofeyr; ed: Bisofeyr]</v>
       </c>
     </row>
   </sheetData>
@@ -3040,7 +3673,7 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="2" width="95.703125" bestFit="1" customWidth="1"/>
   </cols>
@@ -3186,7 +3819,7 @@
       <selection sqref="A1:B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.9375" defaultRowHeight="14.35"/>
+  <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="72.87890625" bestFit="1" customWidth="1"/>
   </cols>

--- a/Issues Section Template.xlsx
+++ b/Issues Section Template.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="385">
   <si>
     <t>Eco Warriors</t>
   </si>
@@ -985,6 +985,192 @@
   </si>
   <si>
     <t>[Bisofeyr; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>A Little More Than Sunburn</t>
+  </si>
+  <si>
+    <t>Long Time No See</t>
+  </si>
+  <si>
+    <t>Robbin’ for Good</t>
+  </si>
+  <si>
+    <t>A Royal Surplus</t>
+  </si>
+  <si>
+    <t>The Next Level</t>
+  </si>
+  <si>
+    <t>Orange You Glad for Innovation?</t>
+  </si>
+  <si>
+    <t>A Problem We’d Rat-her Not Have</t>
+  </si>
+  <si>
+    <t>@@DEMONYMPLURAL@@ Still Footing the Bill</t>
+  </si>
+  <si>
+    <t>Angry Birds</t>
+  </si>
+  <si>
+    <t>Circus Bulls on Parade</t>
+  </si>
+  <si>
+    <t>Missing the Spice of Life</t>
+  </si>
+  <si>
+    <t>Taken for Granted</t>
+  </si>
+  <si>
+    <t>Goodwill to Bad Men?</t>
+  </si>
+  <si>
+    <t>Morally Bankrupt</t>
+  </si>
+  <si>
+    <t>Don’t Have a Cow, Man</t>
+  </si>
+  <si>
+    <t>May I Pick Your Brain?</t>
+  </si>
+  <si>
+    <t>A Colonel of Hope</t>
+  </si>
+  <si>
+    <t>Let Me Be Queer</t>
+  </si>
+  <si>
+    <t>Curvy Cuisine Causes Conflict</t>
+  </si>
+  <si>
+    <t>A Little Spanner in the Works</t>
+  </si>
+  <si>
+    <t>Whitewashed</t>
+  </si>
+  <si>
+    <t>What Wood You Do?</t>
+  </si>
+  <si>
+    <t>Misery Business</t>
+  </si>
+  <si>
+    <t>Many Are Called</t>
+  </si>
+  <si>
+    <t>Crawling On My Skin</t>
+  </si>
+  <si>
+    <t>Whose Democracy Is It Anyway?</t>
+  </si>
+  <si>
+    <t>A Game Theory</t>
+  </si>
+  <si>
+    <t>Move Over, Darling</t>
+  </si>
+  <si>
+    <t>Taking Atoll</t>
+  </si>
+  <si>
+    <t>Do They Get the Job Done?</t>
+  </si>
+  <si>
+    <t>Isn’t There Someone You Forgot to Ask?</t>
+  </si>
+  <si>
+    <t>Spare Any Change?</t>
+  </si>
+  <si>
+    <t>[Sa-myn; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[USS Monitor; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Feifell; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[Frieden-und Freudenland; ed: Nardin]</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Jiangbei]</t>
+  </si>
+  <si>
+    <t>[L V M H; ed: Kractero]</t>
+  </si>
+  <si>
+    <t>[Shuckletopia; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Dexterra; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[UPC; ed: Thorn1000]</t>
+  </si>
+  <si>
+    <t>[Jim the Baptist, Dabarastan; ed: Varanius]</t>
+  </si>
+  <si>
+    <t>[Haymarket Riot; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Hulldom; ed: Millenhaal]</t>
+  </si>
+  <si>
+    <t>[Nuremgard; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[God-Empress Makasta Silversbane; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Fhaengshia; ed: Kractero]</t>
+  </si>
+  <si>
+    <t>[Gem; ed: Ostrovskiy]</t>
+  </si>
+  <si>
+    <t>[Helaw; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>[Fhaengshia; ed: Jiangbei]</t>
+  </si>
+  <si>
+    <t>[Millenhaal; ed: Bisofeyr]</t>
+  </si>
+  <si>
+    <t>[San Laurenz; ed: Kractero]</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Kay Pacha; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Jim the Baptist; ed: Southland]</t>
+  </si>
+  <si>
+    <t>[Khardsland; ed: Millenhaal]</t>
+  </si>
+  <si>
+    <t>[Saint Arsenio; ed: The Ankhalic Vaspriot]</t>
+  </si>
+  <si>
+    <t>[Conservative Republic of Huang; ed: Millenhaal]</t>
+  </si>
+  <si>
+    <t>[Zwangzug; ed: Raionitu]</t>
+  </si>
+  <si>
+    <t>[Krusavich; ed: Haymarket Riot]</t>
+  </si>
+  <si>
+    <t>[Candlewhisper Archive; ed: The Ankhalic Vaspriot]</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1032,9 +1218,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1072,7 +1258,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1142,7 +1328,7 @@
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1316,10 +1502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125:D155"/>
+    <sheetView tabSelected="1" topLeftCell="C141" workbookViewId="0">
+      <selection activeCell="D156" sqref="D156:D187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.9375" defaultRowHeight="14.35"/>
@@ -3262,7 +3448,7 @@
         <v>273</v>
       </c>
       <c r="D129" t="str">
-        <f t="shared" ref="D129:D155" si="2">"#"&amp;A129&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A129&amp;"]"&amp;B129&amp;"[/url] "&amp;C129</f>
+        <f t="shared" ref="D129:D187" si="2">"#"&amp;A129&amp;": [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#"&amp;A129&amp;"]"&amp;B129&amp;"[/url] "&amp;C129</f>
         <v>#1714: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1714][Republik Hintonia; ed: Baggieland][/url] [Republik Hintonia; ed: Baggieland]</v>
       </c>
     </row>
@@ -3654,6 +3840,486 @@
       <c r="D155" t="str">
         <f t="shared" si="2"/>
         <v>#1740: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1740]Cut the Cheese[/url] [Bisofeyr; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156">
+        <v>1741</v>
+      </c>
+      <c r="B156" t="s">
+        <v>323</v>
+      </c>
+      <c r="C156" t="s">
+        <v>355</v>
+      </c>
+      <c r="D156" t="str">
+        <f t="shared" si="2"/>
+        <v>#1741: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1741]A Little More Than Sunburn[/url] [Sa-myn; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157">
+        <v>1742</v>
+      </c>
+      <c r="B157" t="s">
+        <v>324</v>
+      </c>
+      <c r="C157" t="s">
+        <v>356</v>
+      </c>
+      <c r="D157" t="str">
+        <f t="shared" si="2"/>
+        <v>#1742: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1742]Long Time No See[/url] [USS Monitor; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158">
+        <v>1743</v>
+      </c>
+      <c r="B158" t="s">
+        <v>325</v>
+      </c>
+      <c r="C158" t="s">
+        <v>357</v>
+      </c>
+      <c r="D158" t="str">
+        <f t="shared" si="2"/>
+        <v>#1743: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1743]Robbin’ for Good[/url] [Feifell; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159">
+        <v>1744</v>
+      </c>
+      <c r="B159" t="s">
+        <v>326</v>
+      </c>
+      <c r="C159" t="s">
+        <v>358</v>
+      </c>
+      <c r="D159" t="str">
+        <f t="shared" si="2"/>
+        <v>#1744: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1744]A Royal Surplus[/url] [Frieden-und Freudenland; ed: Nardin]</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160">
+        <v>1745</v>
+      </c>
+      <c r="B160" t="s">
+        <v>327</v>
+      </c>
+      <c r="C160" t="s">
+        <v>359</v>
+      </c>
+      <c r="D160" t="str">
+        <f t="shared" si="2"/>
+        <v>#1745: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1745]The Next Level[/url] [Candlewhisper Archive; ed: Jiangbei]</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161">
+        <v>1746</v>
+      </c>
+      <c r="B161" t="s">
+        <v>328</v>
+      </c>
+      <c r="C161" t="s">
+        <v>360</v>
+      </c>
+      <c r="D161" t="str">
+        <f t="shared" si="2"/>
+        <v>#1746: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1746]Orange You Glad for Innovation?[/url] [L V M H; ed: Kractero]</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162">
+        <v>1747</v>
+      </c>
+      <c r="B162" t="s">
+        <v>329</v>
+      </c>
+      <c r="C162" t="s">
+        <v>361</v>
+      </c>
+      <c r="D162" t="str">
+        <f t="shared" si="2"/>
+        <v>#1747: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1747]A Problem We’d Rat-her Not Have[/url] [Shuckletopia; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163">
+        <v>1748</v>
+      </c>
+      <c r="B163" t="s">
+        <v>330</v>
+      </c>
+      <c r="C163" t="s">
+        <v>362</v>
+      </c>
+      <c r="D163" t="str">
+        <f t="shared" si="2"/>
+        <v>#1748: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1748]@@DEMONYMPLURAL@@ Still Footing the Bill[/url] [Dexterra; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164">
+        <v>1749</v>
+      </c>
+      <c r="B164" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" t="s">
+        <v>363</v>
+      </c>
+      <c r="D164" t="str">
+        <f t="shared" si="2"/>
+        <v>#1749: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1749]Angry Birds[/url] [UPC; ed: Thorn1000]</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165">
+        <v>1750</v>
+      </c>
+      <c r="B165" t="s">
+        <v>332</v>
+      </c>
+      <c r="C165" t="s">
+        <v>364</v>
+      </c>
+      <c r="D165" t="str">
+        <f t="shared" si="2"/>
+        <v>#1750: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1750]Circus Bulls on Parade[/url] [Jim the Baptist, Dabarastan; ed: Varanius]</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166">
+        <v>1751</v>
+      </c>
+      <c r="B166" t="s">
+        <v>333</v>
+      </c>
+      <c r="C166" t="s">
+        <v>365</v>
+      </c>
+      <c r="D166" t="str">
+        <f t="shared" si="2"/>
+        <v>#1751: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1751]Missing the Spice of Life[/url] [Haymarket Riot; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167">
+        <v>1752</v>
+      </c>
+      <c r="B167" t="s">
+        <v>334</v>
+      </c>
+      <c r="C167" t="s">
+        <v>366</v>
+      </c>
+      <c r="D167" t="str">
+        <f t="shared" si="2"/>
+        <v>#1752: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1752]Taken for Granted[/url] [Hulldom; ed: Millenhaal]</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168">
+        <v>1753</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+      <c r="C168" t="s">
+        <v>367</v>
+      </c>
+      <c r="D168" t="str">
+        <f t="shared" si="2"/>
+        <v>#1753: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1753]Goodwill to Bad Men?[/url] [Nuremgard; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169">
+        <v>1754</v>
+      </c>
+      <c r="B169" t="s">
+        <v>336</v>
+      </c>
+      <c r="C169" t="s">
+        <v>368</v>
+      </c>
+      <c r="D169" t="str">
+        <f t="shared" si="2"/>
+        <v>#1754: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1754]Morally Bankrupt[/url] [Candlewhisper Archive; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170">
+        <v>1755</v>
+      </c>
+      <c r="B170" t="s">
+        <v>337</v>
+      </c>
+      <c r="C170" t="s">
+        <v>368</v>
+      </c>
+      <c r="D170" t="str">
+        <f t="shared" si="2"/>
+        <v>#1755: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1755]Don’t Have a Cow, Man[/url] [Candlewhisper Archive; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171">
+        <v>1756</v>
+      </c>
+      <c r="B171" t="s">
+        <v>338</v>
+      </c>
+      <c r="C171" t="s">
+        <v>369</v>
+      </c>
+      <c r="D171" t="str">
+        <f t="shared" si="2"/>
+        <v>#1756: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1756]May I Pick Your Brain?[/url] [God-Empress Makasta Silversbane; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172">
+        <v>1757</v>
+      </c>
+      <c r="B172" t="s">
+        <v>339</v>
+      </c>
+      <c r="C172" t="s">
+        <v>370</v>
+      </c>
+      <c r="D172" t="str">
+        <f t="shared" si="2"/>
+        <v>#1757: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1757]A Colonel of Hope[/url] [Fhaengshia; ed: Kractero]</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173">
+        <v>1758</v>
+      </c>
+      <c r="B173" t="s">
+        <v>340</v>
+      </c>
+      <c r="C173" t="s">
+        <v>371</v>
+      </c>
+      <c r="D173" t="str">
+        <f t="shared" si="2"/>
+        <v>#1758: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1758]Let Me Be Queer[/url] [Gem; ed: Ostrovskiy]</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174">
+        <v>1759</v>
+      </c>
+      <c r="B174" t="s">
+        <v>341</v>
+      </c>
+      <c r="C174" t="s">
+        <v>372</v>
+      </c>
+      <c r="D174" t="str">
+        <f t="shared" si="2"/>
+        <v>#1759: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1759]Curvy Cuisine Causes Conflict[/url] [Helaw; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175">
+        <v>1760</v>
+      </c>
+      <c r="B175" t="s">
+        <v>342</v>
+      </c>
+      <c r="C175" t="s">
+        <v>373</v>
+      </c>
+      <c r="D175" t="str">
+        <f t="shared" si="2"/>
+        <v>#1760: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1760]A Little Spanner in the Works[/url] [Fhaengshia; ed: Jiangbei]</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176">
+        <v>1761</v>
+      </c>
+      <c r="B176" t="s">
+        <v>343</v>
+      </c>
+      <c r="C176" t="s">
+        <v>374</v>
+      </c>
+      <c r="D176" t="str">
+        <f t="shared" si="2"/>
+        <v>#1761: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1761]Whitewashed[/url] [Millenhaal; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>1762</v>
+      </c>
+      <c r="B177" t="s">
+        <v>344</v>
+      </c>
+      <c r="C177" t="s">
+        <v>252</v>
+      </c>
+      <c r="D177" t="str">
+        <f t="shared" si="2"/>
+        <v>#1762: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1762]What Wood You Do?[/url] [Candlewhisper Archive; ed: Bisofeyr]</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178">
+        <v>1763</v>
+      </c>
+      <c r="B178" t="s">
+        <v>345</v>
+      </c>
+      <c r="C178" t="s">
+        <v>375</v>
+      </c>
+      <c r="D178" t="str">
+        <f t="shared" si="2"/>
+        <v>#1763: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1763]Misery Business[/url] [San Laurenz; ed: Kractero]</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179">
+        <v>1764</v>
+      </c>
+      <c r="B179" t="s">
+        <v>346</v>
+      </c>
+      <c r="C179" t="s">
+        <v>376</v>
+      </c>
+      <c r="D179" t="str">
+        <f t="shared" si="2"/>
+        <v>#1764: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1764]Many Are Called[/url] [Candlewhisper Archive; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180">
+        <v>1765</v>
+      </c>
+      <c r="B180" t="s">
+        <v>347</v>
+      </c>
+      <c r="C180" t="s">
+        <v>377</v>
+      </c>
+      <c r="D180" t="str">
+        <f t="shared" si="2"/>
+        <v>#1765: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1765]Crawling On My Skin[/url] [Kay Pacha; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181">
+        <v>1766</v>
+      </c>
+      <c r="B181" t="s">
+        <v>348</v>
+      </c>
+      <c r="C181" t="s">
+        <v>378</v>
+      </c>
+      <c r="D181" t="str">
+        <f t="shared" si="2"/>
+        <v>#1766: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1766]Whose Democracy Is It Anyway?[/url] [Jim the Baptist; ed: Southland]</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182">
+        <v>1767</v>
+      </c>
+      <c r="B182" t="s">
+        <v>349</v>
+      </c>
+      <c r="C182" t="s">
+        <v>379</v>
+      </c>
+      <c r="D182" t="str">
+        <f t="shared" si="2"/>
+        <v>#1767: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1767]A Game Theory[/url] [Khardsland; ed: Millenhaal]</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183">
+        <v>1768</v>
+      </c>
+      <c r="B183" t="s">
+        <v>350</v>
+      </c>
+      <c r="C183" t="s">
+        <v>380</v>
+      </c>
+      <c r="D183" t="str">
+        <f t="shared" si="2"/>
+        <v>#1768: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1768]Move Over, Darling[/url] [Saint Arsenio; ed: The Ankhalic Vaspriot]</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184">
+        <v>1769</v>
+      </c>
+      <c r="B184" t="s">
+        <v>351</v>
+      </c>
+      <c r="C184" t="s">
+        <v>381</v>
+      </c>
+      <c r="D184" t="str">
+        <f t="shared" si="2"/>
+        <v>#1769: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1769]Taking Atoll[/url] [Conservative Republic of Huang; ed: Millenhaal]</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185">
+        <v>1770</v>
+      </c>
+      <c r="B185" t="s">
+        <v>352</v>
+      </c>
+      <c r="C185" t="s">
+        <v>382</v>
+      </c>
+      <c r="D185" t="str">
+        <f t="shared" si="2"/>
+        <v>#1770: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1770]Do They Get the Job Done?[/url] [Zwangzug; ed: Raionitu]</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186">
+        <v>1771</v>
+      </c>
+      <c r="B186" t="s">
+        <v>353</v>
+      </c>
+      <c r="C186" t="s">
+        <v>383</v>
+      </c>
+      <c r="D186" t="str">
+        <f t="shared" si="2"/>
+        <v>#1771: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1771]Isn’t There Someone You Forgot to Ask?[/url] [Krusavich; ed: Haymarket Riot]</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187">
+        <v>1772</v>
+      </c>
+      <c r="B187" t="s">
+        <v>354</v>
+      </c>
+      <c r="C187" t="s">
+        <v>384</v>
+      </c>
+      <c r="D187" t="str">
+        <f t="shared" si="2"/>
+        <v>#1772: [url=http://forum.nationstates.net/viewtopic.php?f=13&amp;t=88&amp;start=75#1772]Spare Any Change?[/url] [Candlewhisper Archive; ed: The Ankhalic Vaspriot]</v>
       </c>
     </row>
   </sheetData>
